--- a/cea/databases/SG/assemblies/ENVELOPE.xlsx
+++ b/cea/databases/SG/assemblies/ENVELOPE.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10409"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/fonseca/Documents/GitHub/CityEnergyAnalyst/cea/databases/SG/assemblies/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6EAA39B6-143C-B647-B6A7-09DB2A97DA8F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A9E7E01-2FB3-714B-A4C7-C426A845898B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="35200" yWindow="-12840" windowWidth="30240" windowHeight="17340"/>
+    <workbookView xWindow="35200" yWindow="-12840" windowWidth="30240" windowHeight="17340" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CONSTRUCTION" sheetId="7" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="109">
   <si>
     <t>Description</t>
   </si>
@@ -358,16 +358,25 @@
   </si>
   <si>
     <t>GHG_COLUMN_STRUCTURE_RATIO</t>
+  </si>
+  <si>
+    <t>Structural Concrete columns 50cm x 50cm every 5m</t>
+  </si>
+  <si>
+    <t>COLUMN_AS1</t>
+  </si>
+  <si>
+    <t>Own Estimation</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="193" formatCode="0.0"/>
+    <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -393,6 +402,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="4">
@@ -454,12 +469,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="1" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -471,13 +486,10 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="193" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -487,13 +499,11 @@
     <xf numFmtId="49" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Normal 2 2" xfId="1"/>
+    <cellStyle name="Normal 2 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -766,10 +776,10 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I31" sqref="I1:I31"/>
     </sheetView>
   </sheetViews>
@@ -792,7 +802,7 @@
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2" s="9" t="s">
+      <c r="A2" s="8" t="s">
         <v>37</v>
       </c>
       <c r="B2" s="4" t="s">
@@ -803,7 +813,7 @@
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3" s="9" t="s">
+      <c r="A3" s="8" t="s">
         <v>38</v>
       </c>
       <c r="B3" s="4" t="s">
@@ -814,7 +824,7 @@
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A4" s="9" t="s">
+      <c r="A4" s="8" t="s">
         <v>36</v>
       </c>
       <c r="B4" s="4" t="s">
@@ -830,7 +840,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -855,7 +865,7 @@
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2" s="9" t="s">
+      <c r="A2" s="8" t="s">
         <v>43</v>
       </c>
       <c r="B2" s="4" t="s">
@@ -866,7 +876,7 @@
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3" s="9" t="s">
+      <c r="A3" s="8" t="s">
         <v>39</v>
       </c>
       <c r="B3" s="4" t="s">
@@ -877,7 +887,7 @@
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A4" s="9" t="s">
+      <c r="A4" s="8" t="s">
         <v>44</v>
       </c>
       <c r="B4" s="4" t="s">
@@ -888,7 +898,7 @@
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A5" s="9" t="s">
+      <c r="A5" s="8" t="s">
         <v>42</v>
       </c>
       <c r="B5" s="4" t="s">
@@ -899,7 +909,7 @@
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A6" s="9" t="s">
+      <c r="A6" s="8" t="s">
         <v>40</v>
       </c>
       <c r="B6" s="4" t="s">
@@ -910,7 +920,7 @@
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A7" s="9" t="s">
+      <c r="A7" s="8" t="s">
         <v>41</v>
       </c>
       <c r="B7" s="4" t="s">
@@ -926,7 +936,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -962,12 +972,12 @@
       <c r="F1" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="G1" s="11" t="s">
+      <c r="G1" s="10" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A2" s="10" t="s">
+      <c r="A2" s="9" t="s">
         <v>5</v>
       </c>
       <c r="B2" s="4" t="s">
@@ -985,12 +995,12 @@
       <c r="F2" s="5">
         <v>0.2</v>
       </c>
-      <c r="G2" s="12">
+      <c r="G2" s="6">
         <v>47</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A3" s="10" t="s">
+      <c r="A3" s="9" t="s">
         <v>31</v>
       </c>
       <c r="B3" s="4" t="s">
@@ -1008,12 +1018,12 @@
       <c r="F3" s="5">
         <v>0.2</v>
       </c>
-      <c r="G3" s="12">
+      <c r="G3" s="6">
         <v>62</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A4" s="10" t="s">
+      <c r="A4" s="9" t="s">
         <v>30</v>
       </c>
       <c r="B4" s="4" t="s">
@@ -1031,12 +1041,12 @@
       <c r="F4" s="5">
         <v>0.2</v>
       </c>
-      <c r="G4" s="12">
+      <c r="G4" s="6">
         <v>69</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A5" s="10" t="s">
+      <c r="A5" s="9" t="s">
         <v>6</v>
       </c>
       <c r="B5" s="4" t="s">
@@ -1054,12 +1064,12 @@
       <c r="F5" s="5">
         <v>0.2</v>
       </c>
-      <c r="G5" s="12">
+      <c r="G5" s="6">
         <v>123</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A6" s="10" t="s">
+      <c r="A6" s="9" t="s">
         <v>46</v>
       </c>
       <c r="B6" s="4" t="s">
@@ -1068,7 +1078,7 @@
       <c r="C6" s="4">
         <v>0.99</v>
       </c>
-      <c r="D6" s="6">
+      <c r="D6" s="4">
         <v>0.7</v>
       </c>
       <c r="E6" s="5">
@@ -1077,12 +1087,12 @@
       <c r="F6" s="5">
         <v>0.2</v>
       </c>
-      <c r="G6" s="12">
+      <c r="G6" s="6">
         <v>123</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A7" s="10" t="s">
+      <c r="A7" s="9" t="s">
         <v>7</v>
       </c>
       <c r="B7" s="4" t="s">
@@ -1100,12 +1110,12 @@
       <c r="F7" s="5">
         <v>0.2</v>
       </c>
-      <c r="G7" s="12">
+      <c r="G7" s="6">
         <v>123</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A8" s="10" t="s">
+      <c r="A8" s="9" t="s">
         <v>8</v>
       </c>
       <c r="B8" s="4" t="s">
@@ -1123,12 +1133,12 @@
       <c r="F8" s="5">
         <v>0.2</v>
       </c>
-      <c r="G8" s="12">
+      <c r="G8" s="6">
         <v>70</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A9" s="10" t="s">
+      <c r="A9" s="9" t="s">
         <v>49</v>
       </c>
       <c r="B9" s="4" t="s">
@@ -1146,12 +1156,12 @@
       <c r="F9" s="5">
         <v>0.2</v>
       </c>
-      <c r="G9" s="12">
+      <c r="G9" s="6">
         <v>47</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A10" s="10" t="s">
+      <c r="A10" s="9" t="s">
         <v>50</v>
       </c>
       <c r="B10" s="4" t="s">
@@ -1169,12 +1179,12 @@
       <c r="F10" s="5">
         <v>0.2</v>
       </c>
-      <c r="G10" s="12">
+      <c r="G10" s="6">
         <v>62</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A11" s="10" t="s">
+      <c r="A11" s="9" t="s">
         <v>51</v>
       </c>
       <c r="B11" s="4" t="s">
@@ -1192,7 +1202,7 @@
       <c r="F11" s="5">
         <v>0.2</v>
       </c>
-      <c r="G11" s="12">
+      <c r="G11" s="6">
         <v>62</v>
       </c>
     </row>
@@ -1202,7 +1212,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1239,12 +1249,12 @@
       <c r="F1" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="G1" s="11" t="s">
+      <c r="G1" s="10" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A2" s="10" t="s">
+      <c r="A2" s="9" t="s">
         <v>21</v>
       </c>
       <c r="B2" s="4" t="s">
@@ -1263,12 +1273,12 @@
         <f>1-D2</f>
         <v>0.4</v>
       </c>
-      <c r="G2" s="12">
+      <c r="G2" s="6">
         <v>112</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A3" s="10" t="s">
+      <c r="A3" s="9" t="s">
         <v>20</v>
       </c>
       <c r="B3" s="4" t="s">
@@ -1287,12 +1297,12 @@
         <f t="shared" ref="F3:F8" si="0">1-D3</f>
         <v>0.44999999999999996</v>
       </c>
-      <c r="G3" s="12">
+      <c r="G3" s="6">
         <v>112</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A4" s="10" t="s">
+      <c r="A4" s="9" t="s">
         <v>23</v>
       </c>
       <c r="B4" s="4" t="s">
@@ -1311,12 +1321,12 @@
         <f t="shared" si="0"/>
         <v>0.7</v>
       </c>
-      <c r="G4" s="12">
+      <c r="G4" s="6">
         <v>112</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A5" s="10" t="s">
+      <c r="A5" s="9" t="s">
         <v>22</v>
       </c>
       <c r="B5" s="4" t="s">
@@ -1325,7 +1335,7 @@
       <c r="C5" s="4">
         <v>0.15</v>
       </c>
-      <c r="D5" s="6">
+      <c r="D5" s="4">
         <v>0.5</v>
       </c>
       <c r="E5" s="4">
@@ -1335,12 +1345,12 @@
         <f t="shared" si="0"/>
         <v>0.5</v>
       </c>
-      <c r="G5" s="12">
+      <c r="G5" s="6">
         <v>112</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A6" s="10" t="s">
+      <c r="A6" s="9" t="s">
         <v>24</v>
       </c>
       <c r="B6" s="4" t="s">
@@ -1359,12 +1369,12 @@
         <f t="shared" si="0"/>
         <v>0.7</v>
       </c>
-      <c r="G6" s="12">
+      <c r="G6" s="6">
         <v>113</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A7" s="10" t="s">
+      <c r="A7" s="9" t="s">
         <v>25</v>
       </c>
       <c r="B7" s="4" t="s">
@@ -1373,7 +1383,7 @@
       <c r="C7" s="4">
         <v>0.15</v>
       </c>
-      <c r="D7" s="6">
+      <c r="D7" s="4">
         <v>0.85</v>
       </c>
       <c r="E7" s="4">
@@ -1383,12 +1393,12 @@
         <f t="shared" si="0"/>
         <v>0.15000000000000002</v>
       </c>
-      <c r="G7" s="12">
+      <c r="G7" s="6">
         <v>113</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A8" s="10" t="s">
+      <c r="A8" s="9" t="s">
         <v>47</v>
       </c>
       <c r="B8" s="4" t="s">
@@ -1407,7 +1417,7 @@
         <f t="shared" si="0"/>
         <v>0.4</v>
       </c>
-      <c r="G8" s="12">
+      <c r="G8" s="6">
         <v>112</v>
       </c>
     </row>
@@ -1417,7 +1427,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1451,7 +1461,7 @@
       <c r="F1" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="G1" s="11" t="s">
+      <c r="G1" s="10" t="s">
         <v>88</v>
       </c>
     </row>
@@ -1475,7 +1485,7 @@
         <f t="shared" ref="F2:F8" si="0">1-D2</f>
         <v>0.31999999999999995</v>
       </c>
-      <c r="G2" s="12">
+      <c r="G2" s="6">
         <v>57</v>
       </c>
     </row>
@@ -1486,7 +1496,7 @@
       <c r="B3" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="C3" s="8">
+      <c r="C3" s="7">
         <v>0.75</v>
       </c>
       <c r="D3" s="4">
@@ -1499,7 +1509,7 @@
         <f t="shared" si="0"/>
         <v>0.4</v>
       </c>
-      <c r="G3" s="12">
+      <c r="G3" s="6">
         <v>112</v>
       </c>
     </row>
@@ -1523,7 +1533,7 @@
         <f t="shared" si="0"/>
         <v>0.7</v>
       </c>
-      <c r="G4" s="12">
+      <c r="G4" s="6">
         <v>112</v>
       </c>
     </row>
@@ -1537,7 +1547,7 @@
       <c r="C5" s="4">
         <v>0.15</v>
       </c>
-      <c r="D5" s="6">
+      <c r="D5" s="4">
         <v>0.65</v>
       </c>
       <c r="E5" s="4">
@@ -1547,7 +1557,7 @@
         <f t="shared" si="0"/>
         <v>0.35</v>
       </c>
-      <c r="G5" s="12">
+      <c r="G5" s="6">
         <v>112</v>
       </c>
     </row>
@@ -1561,7 +1571,7 @@
       <c r="C6" s="4">
         <v>0.15</v>
       </c>
-      <c r="D6" s="6">
+      <c r="D6" s="4">
         <v>0.85</v>
       </c>
       <c r="E6" s="4">
@@ -1571,7 +1581,7 @@
         <f t="shared" si="0"/>
         <v>0.15000000000000002</v>
       </c>
-      <c r="G6" s="12">
+      <c r="G6" s="6">
         <v>112</v>
       </c>
     </row>
@@ -1582,7 +1592,7 @@
       <c r="B7" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="C7" s="8">
+      <c r="C7" s="7">
         <v>3.2</v>
       </c>
       <c r="D7" s="4">
@@ -1595,7 +1605,7 @@
         <f t="shared" si="0"/>
         <v>0.4</v>
       </c>
-      <c r="G7" s="12">
+      <c r="G7" s="6">
         <v>112</v>
       </c>
     </row>
@@ -1606,7 +1616,7 @@
       <c r="B8" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="C8" s="8">
+      <c r="C8" s="7">
         <v>3.2</v>
       </c>
       <c r="D8" s="4">
@@ -1619,7 +1629,7 @@
         <f t="shared" si="0"/>
         <v>0.4</v>
       </c>
-      <c r="G8" s="12">
+      <c r="G8" s="6">
         <v>34</v>
       </c>
     </row>
@@ -1630,7 +1640,7 @@
       <c r="B9" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="C9" s="8">
+      <c r="C9" s="7">
         <v>3.2</v>
       </c>
       <c r="D9" s="4">
@@ -1643,7 +1653,7 @@
         <f>1-D9</f>
         <v>0.4</v>
       </c>
-      <c r="G9" s="12">
+      <c r="G9" s="6">
         <v>73</v>
       </c>
     </row>
@@ -1653,7 +1663,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1678,7 +1688,7 @@
       <c r="C1" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="D1" s="11" t="s">
+      <c r="D1" s="10" t="s">
         <v>91</v>
       </c>
     </row>
@@ -1689,10 +1699,10 @@
       <c r="B2" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="C2" s="7">
+      <c r="C2" s="6">
         <v>2.9</v>
       </c>
-      <c r="D2" s="12">
+      <c r="D2" s="6">
         <v>112</v>
       </c>
     </row>
@@ -1703,10 +1713,10 @@
       <c r="B3" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="C3" s="7">
+      <c r="C3" s="6">
         <v>2.9</v>
       </c>
-      <c r="D3" s="12">
+      <c r="D3" s="6">
         <f>112+135</f>
         <v>247</v>
       </c>
@@ -1717,11 +1727,11 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+  <dimension ref="A1:E3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1751,20 +1761,37 @@
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2" s="13" t="s">
+      <c r="A2" s="11" t="s">
         <v>101</v>
       </c>
-      <c r="B2" s="13" t="s">
+      <c r="B2" s="11" t="s">
         <v>103</v>
       </c>
-      <c r="C2" s="13">
+      <c r="C2" s="11">
         <v>0</v>
       </c>
       <c r="D2" s="4">
+        <v>0</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" s="12" t="s">
+        <v>106</v>
+      </c>
+      <c r="B3" s="12" t="s">
+        <v>107</v>
+      </c>
+      <c r="C3" s="12">
+        <v>61.08</v>
+      </c>
+      <c r="D3" s="12">
         <v>1</v>
       </c>
-      <c r="E2" s="9" t="s">
-        <v>102</v>
+      <c r="E3" s="12" t="s">
+        <v>108</v>
       </c>
     </row>
   </sheetData>
@@ -1773,7 +1800,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">

--- a/cea/databases/SG/assemblies/ENVELOPE.xlsx
+++ b/cea/databases/SG/assemblies/ENVELOPE.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mmeshkin\Documents\GitHub\CityEnergyAnalyst\cea\databases\SG\assemblies\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{610468E6-D4FE-45AD-B8D6-65815784530B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2987DD1-D647-4214-8EEA-808168A2084A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11620" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CONSTRUCTION" sheetId="7" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="157">
   <si>
     <t>Description</t>
   </si>
@@ -351,27 +351,15 @@
     <t>FLOOR_AS6</t>
   </si>
   <si>
-    <t>GHG_wall_kgCO2m2</t>
-  </si>
-  <si>
     <t>Service_Life_wall</t>
   </si>
   <si>
-    <t>GHG_floor_kgCO2m2</t>
-  </si>
-  <si>
     <t>Service_Life_floor</t>
   </si>
   <si>
-    <t>GHG_win_kgCO2m2</t>
-  </si>
-  <si>
     <t>Service_Life_win</t>
   </si>
   <si>
-    <t>GHG_roof_kgCO2m2</t>
-  </si>
-  <si>
     <t>Service_Life_roof</t>
   </si>
   <si>
@@ -379,6 +367,147 @@
   </si>
   <si>
     <t>Reference Service life</t>
+  </si>
+  <si>
+    <t>GWP_fossil_cons_kgCO2m2</t>
+  </si>
+  <si>
+    <t>GWP_biogenic_cons_kgCO2m2</t>
+  </si>
+  <si>
+    <t>Service_Life_cons</t>
+  </si>
+  <si>
+    <t>Reference</t>
+  </si>
+  <si>
+    <t>Holzendverbrauch Schweiz 2016 mit weiteren Informationen zu Trends 2017; KBOB</t>
+  </si>
+  <si>
+    <t>Tracking Construction Material over Space and Time: Prospective and Geo-referenced Modeling of Building Stocks and Construction Material Flows; KBOB</t>
+  </si>
+  <si>
+    <t>Light construction - new</t>
+  </si>
+  <si>
+    <t>CONSTRUCTION_AS4</t>
+  </si>
+  <si>
+    <t>Medium construction -new</t>
+  </si>
+  <si>
+    <t>CONSTRUCTION_AS5</t>
+  </si>
+  <si>
+    <t>GWP_win_kgCO2m2</t>
+  </si>
+  <si>
+    <t>GWP_fossil_roof_kgCO2m2</t>
+  </si>
+  <si>
+    <t>GWP_biogenic_roof_kgCO2m2</t>
+  </si>
+  <si>
+    <t>NoStruct Flat roof - new- conventional - sia 2024</t>
+  </si>
+  <si>
+    <t>NoStruct Flat roof - new- low carbon- sia 2024</t>
+  </si>
+  <si>
+    <t>NoStruct Flat roof - new- negative carbon- sia 2024</t>
+  </si>
+  <si>
+    <t>GWP_fossil_wall_kgCO2m2</t>
+  </si>
+  <si>
+    <t>GWP_biogenic_wall_kgCO2m2</t>
+  </si>
+  <si>
+    <t>NoStructur external wall - new- conventional - sia 2024</t>
+  </si>
+  <si>
+    <t>NoStructur external wall - new- low carbon- sia 2024</t>
+  </si>
+  <si>
+    <t>NoStructur external wall - new- negative carbon- sia 2024</t>
+  </si>
+  <si>
+    <t>GWP_fossil_floor_kgCO2m2</t>
+  </si>
+  <si>
+    <t>GWP_biogenic_floor_kgCO2m2</t>
+  </si>
+  <si>
+    <t>NoStructur basement concrete - new - conventional - sia 2024</t>
+  </si>
+  <si>
+    <t>NoStructur basement concrete - new - low carbon - sia 2024</t>
+  </si>
+  <si>
+    <t>NoStructur basement concrete - new - negative - sia 2024</t>
+  </si>
+  <si>
+    <t>NoStructur floor concrete - new - conventional</t>
+  </si>
+  <si>
+    <t>NoStructur floor concrete - new - low carbon</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NoStructur floor concrete - new - negative </t>
+  </si>
+  <si>
+    <t>FLOOR_AS7_C</t>
+  </si>
+  <si>
+    <t>FLOOR_AS7_L</t>
+  </si>
+  <si>
+    <t>FLOOR_AS7_N</t>
+  </si>
+  <si>
+    <t>FLOOR_AS8_C</t>
+  </si>
+  <si>
+    <t>FLOOR_AS8_L</t>
+  </si>
+  <si>
+    <t>FLOOR_AS8_N</t>
+  </si>
+  <si>
+    <t>WALL_AS9_C</t>
+  </si>
+  <si>
+    <t>WALL_AS9_L</t>
+  </si>
+  <si>
+    <t>WALL_AS9_N</t>
+  </si>
+  <si>
+    <t>ROOF_AS8_C</t>
+  </si>
+  <si>
+    <t>ROOF_AS8_L</t>
+  </si>
+  <si>
+    <t>ROOF_AS8_N</t>
+  </si>
+  <si>
+    <t>No retrofit</t>
+  </si>
+  <si>
+    <t>FLOOR_NoRet</t>
+  </si>
+  <si>
+    <t>NoRotrofit</t>
+  </si>
+  <si>
+    <t>WALL_NoRet</t>
+  </si>
+  <si>
+    <t>ROOF_NoRet</t>
+  </si>
+  <si>
+    <t>WINDOW_NoRet</t>
   </si>
 </sst>
 </file>
@@ -388,7 +517,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -421,15 +550,8 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <i/>
-      <sz val="10"/>
-      <color rgb="FF8C8C8C"/>
-      <name val="Arial Unicode MS"/>
-      <family val="2"/>
-    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -448,8 +570,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF9900"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -483,12 +611,25 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -517,20 +658,52 @@
     <xf numFmtId="49" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -813,20 +986,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:G6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F23" sqref="F23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2:G6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="22.453125" customWidth="1"/>
     <col min="2" max="2" width="19.453125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -836,8 +1009,20 @@
       <c r="C1" s="3" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="2" spans="1:3">
+      <c r="D1" s="9" t="s">
+        <v>110</v>
+      </c>
+      <c r="E1" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="F1" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="G1" s="9" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2" s="8" t="s">
         <v>37</v>
       </c>
@@ -847,8 +1032,18 @@
       <c r="C2" s="4">
         <v>110000</v>
       </c>
-    </row>
-    <row r="3" spans="1:3">
+      <c r="D2" s="12">
+        <v>0</v>
+      </c>
+      <c r="E2" s="12">
+        <v>0</v>
+      </c>
+      <c r="F2" s="12">
+        <v>60</v>
+      </c>
+      <c r="G2" s="12"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A3" s="8" t="s">
         <v>38</v>
       </c>
@@ -858,8 +1053,18 @@
       <c r="C3" s="4">
         <v>165000</v>
       </c>
-    </row>
-    <row r="4" spans="1:3">
+      <c r="D3" s="12">
+        <v>0</v>
+      </c>
+      <c r="E3" s="12">
+        <v>0</v>
+      </c>
+      <c r="F3" s="12">
+        <v>60</v>
+      </c>
+      <c r="G3" s="12"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A4" s="8" t="s">
         <v>36</v>
       </c>
@@ -868,6 +1073,62 @@
       </c>
       <c r="C4" s="4">
         <v>300000</v>
+      </c>
+      <c r="D4" s="12">
+        <v>0</v>
+      </c>
+      <c r="E4" s="12">
+        <v>0</v>
+      </c>
+      <c r="F4" s="12">
+        <v>60</v>
+      </c>
+      <c r="G4" s="12"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A5" s="8" t="s">
+        <v>116</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="C5" s="4">
+        <v>110000</v>
+      </c>
+      <c r="D5" s="13">
+        <v>6.9</v>
+      </c>
+      <c r="E5" s="13">
+        <v>-65.5</v>
+      </c>
+      <c r="F5" s="12">
+        <v>60</v>
+      </c>
+      <c r="G5" s="12" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A6" s="8" t="s">
+        <v>118</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="C6" s="4">
+        <v>165000</v>
+      </c>
+      <c r="D6" s="13">
+        <v>82.9</v>
+      </c>
+      <c r="E6" s="13">
+        <v>0</v>
+      </c>
+      <c r="F6" s="12">
+        <v>60</v>
+      </c>
+      <c r="G6" s="12" t="s">
+        <v>115</v>
       </c>
     </row>
   </sheetData>
@@ -883,13 +1144,13 @@
       <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="17.6328125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16.36328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -900,7 +1161,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" s="8" t="s">
         <v>43</v>
       </c>
@@ -911,7 +1172,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" s="8" t="s">
         <v>39</v>
       </c>
@@ -922,7 +1183,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" s="8" t="s">
         <v>44</v>
       </c>
@@ -933,7 +1194,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" s="8" t="s">
         <v>42</v>
       </c>
@@ -944,7 +1205,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" s="8" t="s">
         <v>40</v>
       </c>
@@ -955,7 +1216,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" s="8" t="s">
         <v>41</v>
       </c>
@@ -973,13 +1234,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:I11"/>
+  <dimension ref="A1:I12"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2:I11"/>
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="51.1796875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14.81640625" bestFit="1" customWidth="1"/>
@@ -991,7 +1252,7 @@
     <col min="9" max="9" width="52.6328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1011,16 +1272,16 @@
         <v>52</v>
       </c>
       <c r="G1" s="9" t="s">
-        <v>108</v>
+        <v>120</v>
       </c>
       <c r="H1" s="9" t="s">
+        <v>106</v>
+      </c>
+      <c r="I1" s="9" t="s">
         <v>109</v>
       </c>
-      <c r="I1" s="9" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9">
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A2" s="8" t="s">
         <v>5</v>
       </c>
@@ -1046,10 +1307,10 @@
         <v>30</v>
       </c>
       <c r="I2" s="4" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A3" s="8" t="s">
         <v>31</v>
       </c>
@@ -1075,10 +1336,10 @@
         <v>30</v>
       </c>
       <c r="I3" s="4" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A4" s="8" t="s">
         <v>30</v>
       </c>
@@ -1104,10 +1365,10 @@
         <v>30</v>
       </c>
       <c r="I4" s="4" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A5" s="8" t="s">
         <v>6</v>
       </c>
@@ -1133,10 +1394,10 @@
         <v>30</v>
       </c>
       <c r="I5" s="4" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A6" s="8" t="s">
         <v>46</v>
       </c>
@@ -1162,10 +1423,10 @@
         <v>30</v>
       </c>
       <c r="I6" s="4" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A7" s="8" t="s">
         <v>7</v>
       </c>
@@ -1191,10 +1452,10 @@
         <v>30</v>
       </c>
       <c r="I7" s="4" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A8" s="8" t="s">
         <v>8</v>
       </c>
@@ -1220,10 +1481,10 @@
         <v>30</v>
       </c>
       <c r="I8" s="4" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A9" s="8" t="s">
         <v>49</v>
       </c>
@@ -1249,10 +1510,10 @@
         <v>30</v>
       </c>
       <c r="I9" s="4" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A10" s="8" t="s">
         <v>50</v>
       </c>
@@ -1278,10 +1539,10 @@
         <v>30</v>
       </c>
       <c r="I10" s="4" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A11" s="8" t="s">
         <v>51</v>
       </c>
@@ -1307,8 +1568,35 @@
         <v>30</v>
       </c>
       <c r="I11" s="4" t="s">
-        <v>112</v>
-      </c>
+        <v>108</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A12" s="23" t="s">
+        <v>151</v>
+      </c>
+      <c r="B12" s="24" t="s">
+        <v>156</v>
+      </c>
+      <c r="C12" s="21">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="D12" s="21">
+        <v>0.2</v>
+      </c>
+      <c r="E12" s="25">
+        <v>0.89</v>
+      </c>
+      <c r="F12" s="25">
+        <v>0.2</v>
+      </c>
+      <c r="G12" s="22">
+        <v>0</v>
+      </c>
+      <c r="H12" s="22">
+        <v>60</v>
+      </c>
+      <c r="I12" s="12"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1318,25 +1606,26 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:I8"/>
+  <dimension ref="A1:J12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I1" sqref="I1:I2"/>
+      <selection activeCell="A9" sqref="A9:J12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="54.81640625" customWidth="1"/>
-    <col min="2" max="2" width="10.36328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.1796875" customWidth="1"/>
     <col min="4" max="4" width="10.1796875" customWidth="1"/>
     <col min="5" max="5" width="11" customWidth="1"/>
     <col min="7" max="7" width="20.36328125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.36328125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="52.6328125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="20.36328125" customWidth="1"/>
+    <col min="9" max="9" width="16.36328125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="52.6328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1356,16 +1645,19 @@
         <v>33</v>
       </c>
       <c r="G1" s="9" t="s">
-        <v>110</v>
+        <v>121</v>
       </c>
       <c r="H1" s="9" t="s">
-        <v>111</v>
+        <v>122</v>
       </c>
       <c r="I1" s="9" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9">
+        <v>107</v>
+      </c>
+      <c r="J1" s="9" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A2" s="8" t="s">
         <v>21</v>
       </c>
@@ -1388,14 +1680,17 @@
       <c r="G2" s="6">
         <v>112</v>
       </c>
-      <c r="H2" s="4">
+      <c r="H2" s="6">
+        <v>0</v>
+      </c>
+      <c r="I2" s="4">
         <v>60</v>
       </c>
-      <c r="I2" s="4" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9">
+      <c r="J2" s="4" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A3" s="8" t="s">
         <v>20</v>
       </c>
@@ -1418,14 +1713,17 @@
       <c r="G3" s="6">
         <v>112</v>
       </c>
-      <c r="H3" s="4">
+      <c r="H3" s="6">
+        <v>0</v>
+      </c>
+      <c r="I3" s="4">
         <v>60</v>
       </c>
-      <c r="I3" s="4" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9">
+      <c r="J3" s="4" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A4" s="8" t="s">
         <v>23</v>
       </c>
@@ -1448,14 +1746,17 @@
       <c r="G4" s="6">
         <v>112</v>
       </c>
-      <c r="H4" s="4">
+      <c r="H4" s="6">
+        <v>0</v>
+      </c>
+      <c r="I4" s="4">
         <v>60</v>
       </c>
-      <c r="I4" s="4" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9">
+      <c r="J4" s="4" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A5" s="8" t="s">
         <v>22</v>
       </c>
@@ -1478,14 +1779,17 @@
       <c r="G5" s="6">
         <v>112</v>
       </c>
-      <c r="H5" s="4">
+      <c r="H5" s="6">
+        <v>0</v>
+      </c>
+      <c r="I5" s="4">
         <v>60</v>
       </c>
-      <c r="I5" s="4" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9">
+      <c r="J5" s="4" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A6" s="8" t="s">
         <v>24</v>
       </c>
@@ -1508,14 +1812,17 @@
       <c r="G6" s="6">
         <v>113</v>
       </c>
-      <c r="H6" s="4">
+      <c r="H6" s="6">
+        <v>0</v>
+      </c>
+      <c r="I6" s="4">
         <v>60</v>
       </c>
-      <c r="I6" s="4" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9">
+      <c r="J6" s="4" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A7" s="8" t="s">
         <v>25</v>
       </c>
@@ -1538,42 +1845,169 @@
       <c r="G7" s="6">
         <v>113</v>
       </c>
-      <c r="H7" s="4">
+      <c r="H7" s="6">
+        <v>0</v>
+      </c>
+      <c r="I7" s="4">
         <v>60</v>
       </c>
-      <c r="I7" s="4" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9">
-      <c r="A8" s="8" t="s">
+      <c r="J7" s="4" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A8" s="14" t="s">
         <v>47</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="B8" s="15" t="s">
         <v>78</v>
       </c>
-      <c r="C8" s="4">
+      <c r="C8" s="15">
         <v>0.6</v>
       </c>
-      <c r="D8" s="4">
+      <c r="D8" s="15">
         <v>0.6</v>
       </c>
-      <c r="E8" s="4">
+      <c r="E8" s="15">
         <v>0.94</v>
       </c>
-      <c r="F8" s="4">
+      <c r="F8" s="15">
         <f t="shared" si="0"/>
         <v>0.4</v>
       </c>
-      <c r="G8" s="6">
+      <c r="G8" s="19">
         <v>112</v>
       </c>
-      <c r="H8" s="4">
+      <c r="H8" s="19">
+        <v>0</v>
+      </c>
+      <c r="I8" s="15">
         <v>60</v>
       </c>
-      <c r="I8" s="4" t="s">
-        <v>112</v>
-      </c>
+      <c r="J8" s="15" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A9" s="8" t="s">
+        <v>123</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="C9" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="D9" s="4">
+        <v>0.85</v>
+      </c>
+      <c r="E9" s="4">
+        <v>0.94</v>
+      </c>
+      <c r="F9" s="4">
+        <v>0.15</v>
+      </c>
+      <c r="G9" s="4">
+        <v>140</v>
+      </c>
+      <c r="H9" s="4">
+        <v>0</v>
+      </c>
+      <c r="I9" s="4">
+        <v>60</v>
+      </c>
+      <c r="J9" s="12"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A10" s="8" t="s">
+        <v>124</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="C10" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="D10" s="4">
+        <v>0.85</v>
+      </c>
+      <c r="E10" s="4">
+        <v>0.94</v>
+      </c>
+      <c r="F10" s="4">
+        <v>0.15</v>
+      </c>
+      <c r="G10" s="4">
+        <v>70</v>
+      </c>
+      <c r="H10" s="4">
+        <v>-17</v>
+      </c>
+      <c r="I10" s="4">
+        <v>60</v>
+      </c>
+      <c r="J10" s="12"/>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A11" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="C11" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="D11" s="4">
+        <v>0.85</v>
+      </c>
+      <c r="E11" s="4">
+        <v>0.94</v>
+      </c>
+      <c r="F11" s="4">
+        <v>0.15</v>
+      </c>
+      <c r="G11" s="4">
+        <v>108</v>
+      </c>
+      <c r="H11" s="4">
+        <v>-95</v>
+      </c>
+      <c r="I11" s="4">
+        <v>60</v>
+      </c>
+      <c r="J11" s="12"/>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A12" s="20" t="s">
+        <v>153</v>
+      </c>
+      <c r="B12" s="21" t="s">
+        <v>155</v>
+      </c>
+      <c r="C12" s="21">
+        <v>0.6</v>
+      </c>
+      <c r="D12" s="21">
+        <v>0.6</v>
+      </c>
+      <c r="E12" s="21">
+        <v>0.94</v>
+      </c>
+      <c r="F12" s="21">
+        <f t="shared" ref="F12" si="1">1-D12</f>
+        <v>0.4</v>
+      </c>
+      <c r="G12" s="21">
+        <v>0</v>
+      </c>
+      <c r="H12" s="21">
+        <v>0</v>
+      </c>
+      <c r="I12" s="21">
+        <v>60</v>
+      </c>
+      <c r="J12" s="12"/>
     </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
@@ -1584,22 +2018,23 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:I13"/>
+  <dimension ref="A1:J13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+      <selection activeCell="A13" sqref="A13:J13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="48.453125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.453125" customWidth="1"/>
-    <col min="7" max="7" width="20.36328125" style="12" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.36328125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="52.6328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.90625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="20.36328125" style="11" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="20.36328125" style="11" customWidth="1"/>
+    <col min="9" max="9" width="16.36328125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="52.6328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1618,17 +2053,20 @@
       <c r="F1" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="G1" s="13" t="s">
+      <c r="G1" s="9" t="s">
+        <v>126</v>
+      </c>
+      <c r="H1" s="9" t="s">
+        <v>127</v>
+      </c>
+      <c r="I1" s="9" t="s">
         <v>104</v>
       </c>
-      <c r="H1" s="9" t="s">
-        <v>105</v>
-      </c>
-      <c r="I1" s="9" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9">
+      <c r="J1" s="9" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A2" s="8" t="s">
         <v>32</v>
       </c>
@@ -1648,17 +2086,20 @@
         <f t="shared" ref="F2:F8" si="0">1-D2</f>
         <v>0.31999999999999995</v>
       </c>
-      <c r="G2" s="11">
+      <c r="G2" s="10">
         <v>57</v>
       </c>
-      <c r="H2" s="4">
+      <c r="H2" s="10">
+        <v>0</v>
+      </c>
+      <c r="I2" s="4">
         <v>30</v>
       </c>
-      <c r="I2" s="4" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9">
+      <c r="J2" s="4" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A3" s="8" t="s">
         <v>29</v>
       </c>
@@ -1678,17 +2119,20 @@
         <f t="shared" si="0"/>
         <v>0.4</v>
       </c>
-      <c r="G3" s="11">
+      <c r="G3" s="10">
         <v>112</v>
       </c>
-      <c r="H3" s="4">
+      <c r="H3" s="10">
+        <v>0</v>
+      </c>
+      <c r="I3" s="4">
         <v>30</v>
       </c>
-      <c r="I3" s="4" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9">
+      <c r="J3" s="4" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A4" s="8" t="s">
         <v>28</v>
       </c>
@@ -1708,17 +2152,20 @@
         <f t="shared" si="0"/>
         <v>0.7</v>
       </c>
-      <c r="G4" s="11">
+      <c r="G4" s="10">
         <v>112</v>
       </c>
-      <c r="H4" s="4">
+      <c r="H4" s="10">
+        <v>0</v>
+      </c>
+      <c r="I4" s="4">
         <v>30</v>
       </c>
-      <c r="I4" s="4" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9">
+      <c r="J4" s="4" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A5" s="8" t="s">
         <v>26</v>
       </c>
@@ -1738,17 +2185,20 @@
         <f t="shared" si="0"/>
         <v>0.35</v>
       </c>
-      <c r="G5" s="11">
+      <c r="G5" s="10">
         <v>112</v>
       </c>
-      <c r="H5" s="4">
+      <c r="H5" s="10">
+        <v>0</v>
+      </c>
+      <c r="I5" s="4">
         <v>30</v>
       </c>
-      <c r="I5" s="4" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9">
+      <c r="J5" s="4" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A6" s="8" t="s">
         <v>27</v>
       </c>
@@ -1768,17 +2218,20 @@
         <f t="shared" si="0"/>
         <v>0.15000000000000002</v>
       </c>
-      <c r="G6" s="11">
+      <c r="G6" s="10">
         <v>112</v>
       </c>
-      <c r="H6" s="4">
+      <c r="H6" s="10">
+        <v>0</v>
+      </c>
+      <c r="I6" s="4">
         <v>30</v>
       </c>
-      <c r="I6" s="4" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9">
+      <c r="J6" s="4" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A7" s="8" t="s">
         <v>48</v>
       </c>
@@ -1798,17 +2251,20 @@
         <f t="shared" si="0"/>
         <v>0.4</v>
       </c>
-      <c r="G7" s="11">
+      <c r="G7" s="10">
         <v>112</v>
       </c>
-      <c r="H7" s="4">
+      <c r="H7" s="10">
+        <v>0</v>
+      </c>
+      <c r="I7" s="4">
         <v>30</v>
       </c>
-      <c r="I7" s="4" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9">
+      <c r="J7" s="4" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A8" s="8" t="s">
         <v>93</v>
       </c>
@@ -1828,48 +2284,171 @@
         <f t="shared" si="0"/>
         <v>0.4</v>
       </c>
-      <c r="G8" s="11">
+      <c r="G8" s="10">
         <v>34</v>
       </c>
-      <c r="H8" s="4">
+      <c r="H8" s="10">
+        <v>0</v>
+      </c>
+      <c r="I8" s="4">
         <v>30</v>
       </c>
-      <c r="I8" s="4" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9">
-      <c r="A9" s="8" t="s">
+      <c r="J8" s="4" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A9" s="14" t="s">
         <v>90</v>
       </c>
-      <c r="B9" s="4" t="s">
+      <c r="B9" s="15" t="s">
         <v>92</v>
       </c>
-      <c r="C9" s="7">
+      <c r="C9" s="16">
         <v>3.2</v>
       </c>
-      <c r="D9" s="4">
+      <c r="D9" s="15">
         <v>0.6</v>
       </c>
-      <c r="E9" s="4">
+      <c r="E9" s="15">
         <v>0.95</v>
       </c>
-      <c r="F9" s="4">
+      <c r="F9" s="15">
         <f>1-D9</f>
         <v>0.4</v>
       </c>
-      <c r="G9" s="11">
+      <c r="G9" s="17">
         <v>73</v>
       </c>
-      <c r="H9" s="4">
+      <c r="H9" s="17">
+        <v>0</v>
+      </c>
+      <c r="I9" s="15">
         <v>30</v>
       </c>
-      <c r="I9" s="4" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9">
-      <c r="A13" s="14"/>
+      <c r="J9" s="15" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A10" s="8" t="s">
+        <v>128</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="C10" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="D10" s="4">
+        <v>0.3</v>
+      </c>
+      <c r="E10" s="4">
+        <v>0.84</v>
+      </c>
+      <c r="F10" s="4">
+        <v>0.7</v>
+      </c>
+      <c r="G10" s="18">
+        <v>102</v>
+      </c>
+      <c r="H10" s="18">
+        <v>0</v>
+      </c>
+      <c r="I10" s="4">
+        <v>30</v>
+      </c>
+      <c r="J10" s="12"/>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A11" s="8" t="s">
+        <v>129</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="C11" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="D11" s="4">
+        <v>0.3</v>
+      </c>
+      <c r="E11" s="4">
+        <v>0.84</v>
+      </c>
+      <c r="F11" s="4">
+        <v>0.7</v>
+      </c>
+      <c r="G11" s="18">
+        <v>30</v>
+      </c>
+      <c r="H11" s="18">
+        <v>-16</v>
+      </c>
+      <c r="I11" s="4">
+        <v>30</v>
+      </c>
+      <c r="J11" s="12"/>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A12" s="8" t="s">
+        <v>130</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="C12" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="D12" s="4">
+        <v>0.3</v>
+      </c>
+      <c r="E12" s="4">
+        <v>0.84</v>
+      </c>
+      <c r="F12" s="4">
+        <v>0.7</v>
+      </c>
+      <c r="G12" s="18">
+        <v>66</v>
+      </c>
+      <c r="H12" s="18">
+        <v>-90</v>
+      </c>
+      <c r="I12" s="4">
+        <v>30</v>
+      </c>
+      <c r="J12" s="12"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A13" s="26" t="s">
+        <v>153</v>
+      </c>
+      <c r="B13" s="21" t="s">
+        <v>154</v>
+      </c>
+      <c r="C13" s="21">
+        <v>3.2</v>
+      </c>
+      <c r="D13" s="21">
+        <v>0.6</v>
+      </c>
+      <c r="E13" s="21">
+        <v>0.95</v>
+      </c>
+      <c r="F13" s="21">
+        <v>0.4</v>
+      </c>
+      <c r="G13" s="21">
+        <v>0</v>
+      </c>
+      <c r="H13" s="21">
+        <v>0</v>
+      </c>
+      <c r="I13" s="21">
+        <v>60</v>
+      </c>
+      <c r="J13" s="12"/>
     </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
@@ -1880,23 +2459,24 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:G14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="48.453125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.6328125" customWidth="1"/>
+    <col min="2" max="2" width="13.81640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.453125" customWidth="1"/>
     <col min="4" max="4" width="21.453125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.36328125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="52.6328125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="21.453125" customWidth="1"/>
+    <col min="6" max="6" width="17.36328125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="52.6328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1907,16 +2487,19 @@
         <v>19</v>
       </c>
       <c r="D1" s="9" t="s">
-        <v>106</v>
+        <v>131</v>
       </c>
       <c r="E1" s="9" t="s">
-        <v>107</v>
+        <v>132</v>
       </c>
       <c r="F1" s="9" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6">
+        <v>105</v>
+      </c>
+      <c r="G1" s="9" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2" s="8" t="s">
         <v>96</v>
       </c>
@@ -1929,14 +2512,17 @@
       <c r="D2" s="6">
         <v>113</v>
       </c>
-      <c r="E2" s="4">
+      <c r="E2" s="6">
+        <v>0</v>
+      </c>
+      <c r="F2" s="4">
         <v>30</v>
       </c>
-      <c r="F2" s="4" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
+      <c r="G2" s="4" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A3" s="8" t="s">
         <v>94</v>
       </c>
@@ -1950,14 +2536,17 @@
         <f>D2+44</f>
         <v>157</v>
       </c>
-      <c r="E3" s="4">
+      <c r="E3" s="6">
+        <v>0</v>
+      </c>
+      <c r="F3" s="4">
         <v>30</v>
       </c>
-      <c r="F3" s="4" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
+      <c r="G3" s="4" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A4" s="8" t="s">
         <v>97</v>
       </c>
@@ -1970,14 +2559,17 @@
       <c r="D4" s="6">
         <v>180</v>
       </c>
-      <c r="E4" s="4">
+      <c r="E4" s="6">
+        <v>0</v>
+      </c>
+      <c r="F4" s="4">
         <v>30</v>
       </c>
-      <c r="F4" s="4" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
+      <c r="G4" s="4" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A5" s="8" t="s">
         <v>99</v>
       </c>
@@ -1991,14 +2583,17 @@
         <f>D2+135</f>
         <v>248</v>
       </c>
-      <c r="E5" s="4">
+      <c r="E5" s="6">
+        <v>0</v>
+      </c>
+      <c r="F5" s="4">
         <v>60</v>
       </c>
-      <c r="F5" s="4" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
+      <c r="G5" s="4" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A6" s="8" t="s">
         <v>100</v>
       </c>
@@ -2012,36 +2607,186 @@
         <f>D3+135</f>
         <v>292</v>
       </c>
-      <c r="E6" s="4">
+      <c r="E6" s="6">
+        <v>0</v>
+      </c>
+      <c r="F6" s="4">
         <v>60</v>
       </c>
-      <c r="F6" s="4" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
-      <c r="A7" s="8" t="s">
+      <c r="G6" s="4" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A7" s="14" t="s">
         <v>101</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B7" s="15" t="s">
         <v>103</v>
       </c>
-      <c r="C7" s="6">
+      <c r="C7" s="19">
         <v>0.25</v>
       </c>
-      <c r="D7" s="6">
+      <c r="D7" s="19">
         <f>D4+135</f>
         <v>315</v>
       </c>
-      <c r="E7" s="4">
+      <c r="E7" s="19">
+        <v>0</v>
+      </c>
+      <c r="F7" s="15">
         <v>60</v>
       </c>
-      <c r="F7" s="4" t="s">
+      <c r="G7" s="4" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A8" s="8" t="s">
+        <v>133</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="C8" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="D8" s="4">
         <v>112</v>
       </c>
-    </row>
-    <row r="8" spans="1:6">
-      <c r="B8" s="10"/>
+      <c r="E8" s="4">
+        <v>-60</v>
+      </c>
+      <c r="F8" s="4">
+        <v>60</v>
+      </c>
+      <c r="G8" s="12"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A9" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="C9" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="D9" s="4">
+        <v>43</v>
+      </c>
+      <c r="E9" s="4">
+        <v>-77</v>
+      </c>
+      <c r="F9" s="4">
+        <v>60</v>
+      </c>
+      <c r="G9" s="12"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A10" s="8" t="s">
+        <v>135</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="C10" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="D10" s="4">
+        <v>79</v>
+      </c>
+      <c r="E10" s="4">
+        <v>-150</v>
+      </c>
+      <c r="F10" s="4">
+        <v>60</v>
+      </c>
+      <c r="G10" s="12"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A11" s="8" t="s">
+        <v>136</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="C11" s="4">
+        <v>0.17</v>
+      </c>
+      <c r="D11" s="4">
+        <v>81</v>
+      </c>
+      <c r="E11" s="4">
+        <v>-60</v>
+      </c>
+      <c r="F11" s="4">
+        <v>30</v>
+      </c>
+      <c r="G11" s="12"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A12" s="8" t="s">
+        <v>137</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="C12" s="4">
+        <v>0.17</v>
+      </c>
+      <c r="D12" s="4">
+        <v>41</v>
+      </c>
+      <c r="E12" s="4">
+        <v>-69</v>
+      </c>
+      <c r="F12" s="4">
+        <v>30</v>
+      </c>
+      <c r="G12" s="12"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A13" s="8" t="s">
+        <v>138</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="C13" s="4">
+        <v>0.17</v>
+      </c>
+      <c r="D13" s="4">
+        <v>62</v>
+      </c>
+      <c r="E13" s="4">
+        <v>-111</v>
+      </c>
+      <c r="F13" s="4">
+        <v>30</v>
+      </c>
+      <c r="G13" s="12"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A14" s="20" t="s">
+        <v>151</v>
+      </c>
+      <c r="B14" s="21" t="s">
+        <v>152</v>
+      </c>
+      <c r="C14" s="21">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="D14" s="21">
+        <v>0</v>
+      </c>
+      <c r="E14" s="21">
+        <v>0</v>
+      </c>
+      <c r="F14" s="21">
+        <v>60</v>
+      </c>
+      <c r="G14" s="12"/>
     </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
@@ -2058,13 +2803,13 @@
       <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="45.36328125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -2076,7 +2821,7 @@
       </c>
       <c r="D1" s="1"/>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" s="8" t="s">
         <v>2</v>
       </c>
@@ -2088,7 +2833,7 @@
       </c>
       <c r="D2" s="1"/>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" s="8" t="s">
         <v>15</v>
       </c>
@@ -2100,7 +2845,7 @@
       </c>
       <c r="D3" s="2"/>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" s="8" t="s">
         <v>10</v>
       </c>

--- a/cea/databases/SG/assemblies/ENVELOPE.xlsx
+++ b/cea/databases/SG/assemblies/ENVELOPE.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mmeshkin\Documents\GitHub\CityEnergyAnalyst\cea\databases\SG\assemblies\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mmeshkin\Documents\CEA_Dataset_pool\For_PullRequest\CH\assemblies\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2987DD1-D647-4214-8EEA-808168A2084A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{090DF037-D426-4FB3-A8E1-4087EA6B082C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11620" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CONSTRUCTION" sheetId="7" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="157">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="292" uniqueCount="180">
   <si>
     <t>Description</t>
   </si>
@@ -369,6 +369,189 @@
     <t>Reference Service life</t>
   </si>
   <si>
+    <t>GWP_fossil_wall_kgCO2m2</t>
+  </si>
+  <si>
+    <t>GWP_biogenic_wall_kgCO2m2</t>
+  </si>
+  <si>
+    <t>retrofit external wall, add insulation, conventional, sia 380</t>
+  </si>
+  <si>
+    <t>retrofit external wall, add insulation, low carbon, sia 380</t>
+  </si>
+  <si>
+    <t>retrofit external wall, add insulation, negative carbon, sia 380</t>
+  </si>
+  <si>
+    <t>WALL_AS9_C</t>
+  </si>
+  <si>
+    <t>WALL_AS9_N</t>
+  </si>
+  <si>
+    <t>WALL_AS9_L</t>
+  </si>
+  <si>
+    <t>WALL_AS10_C</t>
+  </si>
+  <si>
+    <t>WALL_AS10_L</t>
+  </si>
+  <si>
+    <t>WALL_AS10_N</t>
+  </si>
+  <si>
+    <t>WALL_AS11_N</t>
+  </si>
+  <si>
+    <t>WALL_AS11_C</t>
+  </si>
+  <si>
+    <t>WALL_AS11_L</t>
+  </si>
+  <si>
+    <t>new building, msonary external wall, conventional , sia 380</t>
+  </si>
+  <si>
+    <t>new building, msonary external wall,  low carbon, sia 380</t>
+  </si>
+  <si>
+    <t>new building, msonary external wall, negative carbon, sia 380</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SIA 380/1 / 2016 D - Heizwärmebedarf </t>
+  </si>
+  <si>
+    <t>NoRotrofit</t>
+  </si>
+  <si>
+    <t>WALL_NoRet</t>
+  </si>
+  <si>
+    <t>No retrofit</t>
+  </si>
+  <si>
+    <t>FLOOR_NoRet</t>
+  </si>
+  <si>
+    <t>FLOOR_AS7_C</t>
+  </si>
+  <si>
+    <t>FLOOR_AS7_L</t>
+  </si>
+  <si>
+    <t>FLOOR_AS7_N</t>
+  </si>
+  <si>
+    <t>FLOOR_AS10_C</t>
+  </si>
+  <si>
+    <t>FLOOR_AS10_L</t>
+  </si>
+  <si>
+    <t>FLOOR_AS10_N</t>
+  </si>
+  <si>
+    <t>FLOOR_AS11_C</t>
+  </si>
+  <si>
+    <t>FLOOR_AS11_L</t>
+  </si>
+  <si>
+    <t>FLOOR_AS11_N</t>
+  </si>
+  <si>
+    <t>GWP_fossil_floor_kgCO2m2</t>
+  </si>
+  <si>
+    <t>GWP_biogenic_floor_kgCO2m2</t>
+  </si>
+  <si>
+    <t>Reference</t>
+  </si>
+  <si>
+    <t>retrofit basement, add insulation, conventional, sia 380</t>
+  </si>
+  <si>
+    <t>retrofit basement, add insulation,  low carbon, sia 380</t>
+  </si>
+  <si>
+    <t>retrofit basement, add insulation, negative carbon, sia 380</t>
+  </si>
+  <si>
+    <t>new building, basement concrete, with parquet, negative carbon, sia 380</t>
+  </si>
+  <si>
+    <t>new building, basement concrete, with parquet, low carbon, sia 380</t>
+  </si>
+  <si>
+    <t>new building, basement concrete, with parquet, conventional, sia 380</t>
+  </si>
+  <si>
+    <t>new building, floor concrete, with parquet, conventional, sia 380</t>
+  </si>
+  <si>
+    <t>new building, floor concrete, with parquet, low carbon, sia 380</t>
+  </si>
+  <si>
+    <t>new building, floor concrete, with parquet, negative carbon, sia 380</t>
+  </si>
+  <si>
+    <t>GWP_fossil_roof_kgCO2m2</t>
+  </si>
+  <si>
+    <t>GWP_biogenic_roof_kgCO2m2</t>
+  </si>
+  <si>
+    <t>ROOF_NoRet</t>
+  </si>
+  <si>
+    <t>ROOF_AS8_C</t>
+  </si>
+  <si>
+    <t>ROOF_AS8_L</t>
+  </si>
+  <si>
+    <t>ROOF_AS8_N</t>
+  </si>
+  <si>
+    <t>ROOF_AS9_C</t>
+  </si>
+  <si>
+    <t>ROOF_AS9_L</t>
+  </si>
+  <si>
+    <t>ROOF_AS9_N</t>
+  </si>
+  <si>
+    <t>retrofit flat roof, add insulation, conventional, sia 380</t>
+  </si>
+  <si>
+    <t>retrofit flat roof, add insulation, low carbon, sia 380</t>
+  </si>
+  <si>
+    <t>retrofit flat roof, add insulation, negative carbon, sia 380</t>
+  </si>
+  <si>
+    <t>new building, flat roof, conventional, sia 380</t>
+  </si>
+  <si>
+    <t>new building, flat roof, low carbon, sia 380</t>
+  </si>
+  <si>
+    <t>new building, flat roof, negative carbon, sia 380</t>
+  </si>
+  <si>
+    <t>Reference U-Value</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>GWP_win_kgCO2m2</t>
+  </si>
+  <si>
     <t>GWP_fossil_cons_kgCO2m2</t>
   </si>
   <si>
@@ -378,133 +561,19 @@
     <t>Service_Life_cons</t>
   </si>
   <si>
-    <t>Reference</t>
-  </si>
-  <si>
-    <t>Holzendverbrauch Schweiz 2016 mit weiteren Informationen zu Trends 2017; KBOB</t>
+    <t>Reference Material Intensity</t>
   </si>
   <si>
     <t>Tracking Construction Material over Space and Time: Prospective and Geo-referenced Modeling of Building Stocks and Construction Material Flows; KBOB</t>
   </si>
   <si>
-    <t>Light construction - new</t>
-  </si>
-  <si>
-    <t>CONSTRUCTION_AS4</t>
-  </si>
-  <si>
-    <t>Medium construction -new</t>
-  </si>
-  <si>
-    <t>CONSTRUCTION_AS5</t>
-  </si>
-  <si>
-    <t>GWP_win_kgCO2m2</t>
-  </si>
-  <si>
-    <t>GWP_fossil_roof_kgCO2m2</t>
-  </si>
-  <si>
-    <t>GWP_biogenic_roof_kgCO2m2</t>
-  </si>
-  <si>
-    <t>NoStruct Flat roof - new- conventional - sia 2024</t>
-  </si>
-  <si>
-    <t>NoStruct Flat roof - new- low carbon- sia 2024</t>
-  </si>
-  <si>
-    <t>NoStruct Flat roof - new- negative carbon- sia 2024</t>
-  </si>
-  <si>
-    <t>GWP_fossil_wall_kgCO2m2</t>
-  </si>
-  <si>
-    <t>GWP_biogenic_wall_kgCO2m2</t>
-  </si>
-  <si>
-    <t>NoStructur external wall - new- conventional - sia 2024</t>
-  </si>
-  <si>
-    <t>NoStructur external wall - new- low carbon- sia 2024</t>
-  </si>
-  <si>
-    <t>NoStructur external wall - new- negative carbon- sia 2024</t>
-  </si>
-  <si>
-    <t>GWP_fossil_floor_kgCO2m2</t>
-  </si>
-  <si>
-    <t>GWP_biogenic_floor_kgCO2m2</t>
-  </si>
-  <si>
-    <t>NoStructur basement concrete - new - conventional - sia 2024</t>
-  </si>
-  <si>
-    <t>NoStructur basement concrete - new - low carbon - sia 2024</t>
-  </si>
-  <si>
-    <t>NoStructur basement concrete - new - negative - sia 2024</t>
-  </si>
-  <si>
-    <t>NoStructur floor concrete - new - conventional</t>
-  </si>
-  <si>
-    <t>NoStructur floor concrete - new - low carbon</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NoStructur floor concrete - new - negative </t>
-  </si>
-  <si>
-    <t>FLOOR_AS7_C</t>
-  </si>
-  <si>
-    <t>FLOOR_AS7_L</t>
-  </si>
-  <si>
-    <t>FLOOR_AS7_N</t>
-  </si>
-  <si>
-    <t>FLOOR_AS8_C</t>
-  </si>
-  <si>
-    <t>FLOOR_AS8_L</t>
-  </si>
-  <si>
-    <t>FLOOR_AS8_N</t>
-  </si>
-  <si>
-    <t>WALL_AS9_C</t>
-  </si>
-  <si>
-    <t>WALL_AS9_L</t>
-  </si>
-  <si>
-    <t>WALL_AS9_N</t>
-  </si>
-  <si>
-    <t>ROOF_AS8_C</t>
-  </si>
-  <si>
-    <t>ROOF_AS8_L</t>
-  </si>
-  <si>
-    <t>ROOF_AS8_N</t>
-  </si>
-  <si>
-    <t>No retrofit</t>
-  </si>
-  <si>
-    <t>FLOOR_NoRet</t>
-  </si>
-  <si>
-    <t>NoRotrofit</t>
-  </si>
-  <si>
-    <t>WALL_NoRet</t>
-  </si>
-  <si>
-    <t>ROOF_NoRet</t>
+    <t>new building, internal partition, conventional</t>
+  </si>
+  <si>
+    <t>new building, internal partition, low carbon</t>
+  </si>
+  <si>
+    <t>new building, internal partition, negative carbon</t>
   </si>
   <si>
     <t>WINDOW_NoRet</t>
@@ -577,7 +646,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -615,6 +684,19 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
       <right style="thin">
         <color indexed="64"/>
       </right>
@@ -629,7 +711,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -664,47 +746,26 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -986,10 +1047,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2:G6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -997,9 +1058,11 @@
     <col min="1" max="1" width="22.453125" customWidth="1"/>
     <col min="2" max="2" width="19.453125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11" customWidth="1"/>
+    <col min="4" max="4" width="24.1796875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="26.90625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1010,19 +1073,22 @@
         <v>45</v>
       </c>
       <c r="D1" s="9" t="s">
-        <v>110</v>
+        <v>171</v>
       </c>
       <c r="E1" s="9" t="s">
-        <v>111</v>
+        <v>172</v>
       </c>
       <c r="F1" s="9" t="s">
-        <v>112</v>
+        <v>173</v>
       </c>
       <c r="G1" s="9" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+        <v>109</v>
+      </c>
+      <c r="H1" s="9" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A2" s="8" t="s">
         <v>37</v>
       </c>
@@ -1032,18 +1098,23 @@
       <c r="C2" s="4">
         <v>110000</v>
       </c>
-      <c r="D2" s="12">
-        <v>0</v>
-      </c>
-      <c r="E2" s="12">
-        <v>0</v>
-      </c>
-      <c r="F2" s="12">
+      <c r="D2" s="4">
+        <v>6.9</v>
+      </c>
+      <c r="E2" s="4">
+        <v>-65.5</v>
+      </c>
+      <c r="F2" s="4">
         <v>60</v>
       </c>
-      <c r="G2" s="12"/>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="G2" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="H2" s="15" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A3" s="8" t="s">
         <v>38</v>
       </c>
@@ -1053,18 +1124,23 @@
       <c r="C3" s="4">
         <v>165000</v>
       </c>
-      <c r="D3" s="12">
-        <v>0</v>
-      </c>
-      <c r="E3" s="12">
-        <v>0</v>
-      </c>
-      <c r="F3" s="12">
+      <c r="D3" s="4">
+        <v>82.9</v>
+      </c>
+      <c r="E3" s="4">
+        <v>0</v>
+      </c>
+      <c r="F3" s="4">
         <v>60</v>
       </c>
-      <c r="G3" s="12"/>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="G3" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="H3" s="15" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A4" s="8" t="s">
         <v>36</v>
       </c>
@@ -1074,62 +1150,25 @@
       <c r="C4" s="4">
         <v>300000</v>
       </c>
-      <c r="D4" s="12">
-        <v>0</v>
-      </c>
-      <c r="E4" s="12">
-        <v>0</v>
-      </c>
-      <c r="F4" s="12">
+      <c r="D4" s="4">
+        <v>0</v>
+      </c>
+      <c r="E4" s="4">
+        <v>0</v>
+      </c>
+      <c r="F4" s="4">
         <v>60</v>
       </c>
-      <c r="G4" s="12"/>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A5" s="8" t="s">
-        <v>116</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>117</v>
-      </c>
-      <c r="C5" s="4">
-        <v>110000</v>
-      </c>
-      <c r="D5" s="13">
-        <v>6.9</v>
-      </c>
-      <c r="E5" s="13">
-        <v>-65.5</v>
-      </c>
-      <c r="F5" s="12">
-        <v>60</v>
-      </c>
-      <c r="G5" s="12" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A6" s="8" t="s">
-        <v>118</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>119</v>
-      </c>
-      <c r="C6" s="4">
-        <v>165000</v>
-      </c>
-      <c r="D6" s="13">
-        <v>82.9</v>
-      </c>
-      <c r="E6" s="13">
-        <v>0</v>
-      </c>
-      <c r="F6" s="12">
-        <v>60</v>
-      </c>
-      <c r="G6" s="12" t="s">
-        <v>115</v>
-      </c>
+      <c r="G4" s="15"/>
+      <c r="H4" s="15"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="E5" s="20"/>
+      <c r="F5" s="20"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="E6" s="20"/>
+      <c r="F6" s="20"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1236,8 +1275,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:I12"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J16" sqref="J16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1272,7 +1311,7 @@
         <v>52</v>
       </c>
       <c r="G1" s="9" t="s">
-        <v>120</v>
+        <v>170</v>
       </c>
       <c r="H1" s="9" t="s">
         <v>106</v>
@@ -1572,31 +1611,31 @@
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A12" s="23" t="s">
-        <v>151</v>
-      </c>
-      <c r="B12" s="24" t="s">
-        <v>156</v>
-      </c>
-      <c r="C12" s="21">
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="D12" s="21">
+      <c r="A12" s="14" t="s">
+        <v>128</v>
+      </c>
+      <c r="B12" s="13" t="s">
+        <v>179</v>
+      </c>
+      <c r="C12" s="13">
+        <v>4.8</v>
+      </c>
+      <c r="D12" s="13">
+        <v>0.85</v>
+      </c>
+      <c r="E12" s="13">
+        <v>0.89</v>
+      </c>
+      <c r="F12" s="13">
         <v>0.2</v>
       </c>
-      <c r="E12" s="25">
-        <v>0.89</v>
-      </c>
-      <c r="F12" s="25">
-        <v>0.2</v>
-      </c>
-      <c r="G12" s="22">
-        <v>0</v>
-      </c>
-      <c r="H12" s="22">
-        <v>60</v>
-      </c>
-      <c r="I12" s="12"/>
+      <c r="G12" s="13">
+        <v>0</v>
+      </c>
+      <c r="H12" s="13">
+        <v>30</v>
+      </c>
+      <c r="I12" s="17"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1606,26 +1645,27 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:J12"/>
+  <dimension ref="A1:P17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A9" sqref="A9:J12"/>
+      <selection activeCell="A15" sqref="A15:I15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="54.81640625" customWidth="1"/>
-    <col min="2" max="2" width="13" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="48.26953125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.90625" customWidth="1"/>
     <col min="3" max="3" width="11.1796875" customWidth="1"/>
     <col min="4" max="4" width="10.1796875" customWidth="1"/>
     <col min="5" max="5" width="11" customWidth="1"/>
     <col min="7" max="7" width="20.36328125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="20.36328125" customWidth="1"/>
-    <col min="9" max="9" width="16.36328125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="52.6328125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.36328125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18.1796875" customWidth="1"/>
+    <col min="10" max="10" width="21.453125" customWidth="1"/>
+    <col min="11" max="11" width="33.6328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1645,10 +1685,10 @@
         <v>33</v>
       </c>
       <c r="G1" s="9" t="s">
-        <v>121</v>
+        <v>153</v>
       </c>
       <c r="H1" s="9" t="s">
-        <v>122</v>
+        <v>154</v>
       </c>
       <c r="I1" s="9" t="s">
         <v>107</v>
@@ -1656,8 +1696,11 @@
       <c r="J1" s="9" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K1" s="9" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A2" s="8" t="s">
         <v>21</v>
       </c>
@@ -1689,8 +1732,11 @@
       <c r="J2" s="4" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K2" s="15" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A3" s="8" t="s">
         <v>20</v>
       </c>
@@ -1707,7 +1753,7 @@
         <v>0.91</v>
       </c>
       <c r="F3" s="4">
-        <f t="shared" ref="F3:F8" si="0">1-D3</f>
+        <f t="shared" ref="F3:F10" si="0">1-D3</f>
         <v>0.44999999999999996</v>
       </c>
       <c r="G3" s="6">
@@ -1722,8 +1768,11 @@
       <c r="J3" s="4" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K3" s="15" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A4" s="8" t="s">
         <v>23</v>
       </c>
@@ -1755,8 +1804,11 @@
       <c r="J4" s="4" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K4" s="15" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A5" s="8" t="s">
         <v>22</v>
       </c>
@@ -1788,8 +1840,11 @@
       <c r="J5" s="4" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K5" s="15" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A6" s="8" t="s">
         <v>24</v>
       </c>
@@ -1821,8 +1876,11 @@
       <c r="J6" s="4" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K6" s="15" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A7" s="8" t="s">
         <v>25</v>
       </c>
@@ -1854,49 +1912,55 @@
       <c r="J7" s="4" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A8" s="14" t="s">
+      <c r="K7" s="15" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A8" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="B8" s="15" t="s">
+      <c r="B8" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="C8" s="15">
+      <c r="C8" s="4">
         <v>0.6</v>
       </c>
-      <c r="D8" s="15">
+      <c r="D8" s="4">
         <v>0.6</v>
       </c>
-      <c r="E8" s="15">
+      <c r="E8" s="4">
         <v>0.94</v>
       </c>
-      <c r="F8" s="15">
+      <c r="F8" s="4">
         <f t="shared" si="0"/>
         <v>0.4</v>
       </c>
-      <c r="G8" s="19">
+      <c r="G8" s="4">
         <v>112</v>
       </c>
-      <c r="H8" s="19">
-        <v>0</v>
-      </c>
-      <c r="I8" s="15">
+      <c r="H8" s="6">
+        <v>0</v>
+      </c>
+      <c r="I8" s="4">
         <v>60</v>
       </c>
-      <c r="J8" s="15" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="J8" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="K8" s="15" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A9" s="8" t="s">
-        <v>123</v>
+        <v>162</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>148</v>
+        <v>156</v>
       </c>
       <c r="C9" s="4">
-        <v>0.1</v>
+        <v>0.25</v>
       </c>
       <c r="D9" s="4">
         <v>0.85</v>
@@ -1905,10 +1969,11 @@
         <v>0.94</v>
       </c>
       <c r="F9" s="4">
-        <v>0.15</v>
+        <f t="shared" si="0"/>
+        <v>0.15000000000000002</v>
       </c>
       <c r="G9" s="4">
-        <v>140</v>
+        <v>37</v>
       </c>
       <c r="H9" s="4">
         <v>0</v>
@@ -1916,17 +1981,22 @@
       <c r="I9" s="4">
         <v>60</v>
       </c>
-      <c r="J9" s="12"/>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="J9" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="K9" s="21" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A10" s="8" t="s">
-        <v>124</v>
+        <v>163</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>149</v>
+        <v>157</v>
       </c>
       <c r="C10" s="4">
-        <v>0.1</v>
+        <v>0.25</v>
       </c>
       <c r="D10" s="4">
         <v>0.85</v>
@@ -1935,28 +2005,34 @@
         <v>0.94</v>
       </c>
       <c r="F10" s="4">
-        <v>0.15</v>
+        <f t="shared" si="0"/>
+        <v>0.15000000000000002</v>
       </c>
       <c r="G10" s="4">
-        <v>70</v>
+        <v>9</v>
       </c>
       <c r="H10" s="4">
-        <v>-17</v>
+        <v>-6</v>
       </c>
       <c r="I10" s="4">
         <v>60</v>
       </c>
-      <c r="J10" s="12"/>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="J10" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="K10" s="21" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A11" s="8" t="s">
-        <v>125</v>
+        <v>164</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>150</v>
+        <v>158</v>
       </c>
       <c r="C11" s="4">
-        <v>0.1</v>
+        <v>0.25</v>
       </c>
       <c r="D11" s="4">
         <v>0.85</v>
@@ -1968,46 +2044,180 @@
         <v>0.15</v>
       </c>
       <c r="G11" s="4">
-        <v>108</v>
+        <v>23</v>
       </c>
       <c r="H11" s="4">
-        <v>-95</v>
+        <v>-34</v>
       </c>
       <c r="I11" s="4">
         <v>60</v>
       </c>
-      <c r="J11" s="12"/>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A12" s="20" t="s">
-        <v>153</v>
-      </c>
-      <c r="B12" s="21" t="s">
+      <c r="J11" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="K11" s="21" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A12" s="8" t="s">
+        <v>165</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="C12" s="4">
+        <v>0.17</v>
+      </c>
+      <c r="D12" s="4">
+        <v>0.85</v>
+      </c>
+      <c r="E12" s="4">
+        <v>0.94</v>
+      </c>
+      <c r="F12" s="4">
+        <v>0.15</v>
+      </c>
+      <c r="G12" s="4">
+        <v>110</v>
+      </c>
+      <c r="H12" s="4">
+        <v>0</v>
+      </c>
+      <c r="I12" s="4">
+        <v>60</v>
+      </c>
+      <c r="J12" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="K12" s="21" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A13" s="8" t="s">
+        <v>166</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="C13" s="4">
+        <v>0.17</v>
+      </c>
+      <c r="D13" s="4">
+        <v>0.85</v>
+      </c>
+      <c r="E13" s="4">
+        <v>0.94</v>
+      </c>
+      <c r="F13" s="4">
+        <v>0.15</v>
+      </c>
+      <c r="G13" s="4">
+        <v>68</v>
+      </c>
+      <c r="H13" s="4">
+        <v>-10</v>
+      </c>
+      <c r="I13" s="4">
+        <v>60</v>
+      </c>
+      <c r="J13" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="K13" s="21" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A14" s="8" t="s">
+        <v>167</v>
+      </c>
+      <c r="B14" s="16" t="s">
+        <v>161</v>
+      </c>
+      <c r="C14" s="4">
+        <v>0.17</v>
+      </c>
+      <c r="D14" s="16">
+        <v>0.85</v>
+      </c>
+      <c r="E14" s="16">
+        <v>0.94</v>
+      </c>
+      <c r="F14" s="16">
+        <v>0.15</v>
+      </c>
+      <c r="G14" s="16">
+        <v>90</v>
+      </c>
+      <c r="H14" s="16">
+        <v>-53</v>
+      </c>
+      <c r="I14" s="16">
+        <v>60</v>
+      </c>
+      <c r="J14" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="K14" s="21" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A15" s="14" t="s">
+        <v>128</v>
+      </c>
+      <c r="B15" s="13" t="s">
         <v>155</v>
       </c>
-      <c r="C12" s="21">
+      <c r="C15" s="13">
+        <v>0.2</v>
+      </c>
+      <c r="D15" s="13">
         <v>0.6</v>
       </c>
-      <c r="D12" s="21">
-        <v>0.6</v>
-      </c>
-      <c r="E12" s="21">
+      <c r="E15" s="13">
         <v>0.94</v>
       </c>
-      <c r="F12" s="21">
-        <f t="shared" ref="F12" si="1">1-D12</f>
+      <c r="F15" s="13">
+        <f>1-D15</f>
         <v>0.4</v>
       </c>
-      <c r="G12" s="21">
-        <v>0</v>
-      </c>
-      <c r="H12" s="21">
-        <v>0</v>
-      </c>
-      <c r="I12" s="21">
+      <c r="G15" s="13">
+        <v>0</v>
+      </c>
+      <c r="H15" s="13">
+        <v>0</v>
+      </c>
+      <c r="I15" s="17">
         <v>60</v>
       </c>
-      <c r="J12" s="12"/>
+      <c r="J15" s="18"/>
+      <c r="K15" s="19"/>
+      <c r="L15" s="20"/>
+      <c r="M15" s="20"/>
+      <c r="N15" s="20"/>
+      <c r="O15" s="20"/>
+      <c r="P15" s="20"/>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="J16" s="18"/>
+      <c r="K16" s="19"/>
+      <c r="L16" s="20"/>
+      <c r="M16" s="20"/>
+      <c r="N16" s="20"/>
+      <c r="O16" s="20"/>
+      <c r="P16" s="20"/>
+    </row>
+    <row r="17" spans="10:16" x14ac:dyDescent="0.35">
+      <c r="J17" s="18"/>
+      <c r="K17" s="19"/>
+      <c r="L17" s="20"/>
+      <c r="M17" s="20"/>
+      <c r="N17" s="20"/>
+      <c r="O17" s="20"/>
+      <c r="P17" s="20"/>
     </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
@@ -2018,23 +2228,24 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:J13"/>
+  <dimension ref="A1:K19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A13" sqref="A13:J13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="48.453125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="49.7265625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.90625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="20.36328125" style="11" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="20.36328125" style="11" customWidth="1"/>
-    <col min="9" max="9" width="16.36328125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="52.6328125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.36328125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.36328125" customWidth="1"/>
+    <col min="10" max="10" width="32.08984375" customWidth="1"/>
+    <col min="11" max="11" width="33.6328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -2054,10 +2265,10 @@
         <v>34</v>
       </c>
       <c r="G1" s="9" t="s">
-        <v>126</v>
+        <v>110</v>
       </c>
       <c r="H1" s="9" t="s">
-        <v>127</v>
+        <v>111</v>
       </c>
       <c r="I1" s="9" t="s">
         <v>104</v>
@@ -2065,8 +2276,11 @@
       <c r="J1" s="9" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K1" s="9" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A2" s="8" t="s">
         <v>32</v>
       </c>
@@ -2092,14 +2306,17 @@
       <c r="H2" s="10">
         <v>0</v>
       </c>
-      <c r="I2" s="4">
+      <c r="I2" s="10">
         <v>30</v>
       </c>
       <c r="J2" s="4" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K2" s="15" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A3" s="8" t="s">
         <v>29</v>
       </c>
@@ -2125,14 +2342,17 @@
       <c r="H3" s="10">
         <v>0</v>
       </c>
-      <c r="I3" s="4">
+      <c r="I3" s="10">
         <v>30</v>
       </c>
       <c r="J3" s="4" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K3" s="15" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A4" s="8" t="s">
         <v>28</v>
       </c>
@@ -2158,14 +2378,17 @@
       <c r="H4" s="10">
         <v>0</v>
       </c>
-      <c r="I4" s="4">
+      <c r="I4" s="10">
         <v>30</v>
       </c>
       <c r="J4" s="4" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K4" s="15" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A5" s="8" t="s">
         <v>26</v>
       </c>
@@ -2191,14 +2414,17 @@
       <c r="H5" s="10">
         <v>0</v>
       </c>
-      <c r="I5" s="4">
+      <c r="I5" s="10">
         <v>30</v>
       </c>
       <c r="J5" s="4" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K5" s="15" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A6" s="8" t="s">
         <v>27</v>
       </c>
@@ -2224,14 +2450,17 @@
       <c r="H6" s="10">
         <v>0</v>
       </c>
-      <c r="I6" s="4">
+      <c r="I6" s="10">
         <v>30</v>
       </c>
       <c r="J6" s="4" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K6" s="15" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A7" s="8" t="s">
         <v>48</v>
       </c>
@@ -2257,14 +2486,17 @@
       <c r="H7" s="10">
         <v>0</v>
       </c>
-      <c r="I7" s="4">
+      <c r="I7" s="10">
         <v>30</v>
       </c>
       <c r="J7" s="4" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K7" s="15" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A8" s="8" t="s">
         <v>93</v>
       </c>
@@ -2290,165 +2522,401 @@
       <c r="H8" s="10">
         <v>0</v>
       </c>
-      <c r="I8" s="4">
+      <c r="I8" s="10">
         <v>30</v>
       </c>
       <c r="J8" s="4" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A9" s="14" t="s">
+      <c r="K8" s="15" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A9" s="8" t="s">
         <v>90</v>
       </c>
-      <c r="B9" s="15" t="s">
+      <c r="B9" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="C9" s="16">
+      <c r="C9" s="7">
         <v>3.2</v>
       </c>
-      <c r="D9" s="15">
+      <c r="D9" s="4">
         <v>0.6</v>
       </c>
-      <c r="E9" s="15">
+      <c r="E9" s="4">
         <v>0.95</v>
       </c>
-      <c r="F9" s="15">
+      <c r="F9" s="4">
         <f>1-D9</f>
         <v>0.4</v>
       </c>
-      <c r="G9" s="17">
+      <c r="G9" s="10">
         <v>73</v>
       </c>
-      <c r="H9" s="17">
-        <v>0</v>
-      </c>
-      <c r="I9" s="15">
+      <c r="H9" s="10">
+        <v>0</v>
+      </c>
+      <c r="I9" s="10">
         <v>30</v>
       </c>
-      <c r="J9" s="15" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="J9" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="K9" s="21" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A10" s="8" t="s">
-        <v>128</v>
+        <v>112</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>145</v>
+        <v>115</v>
       </c>
       <c r="C10" s="4">
-        <v>0.1</v>
+        <v>0.25</v>
       </c>
       <c r="D10" s="4">
         <v>0.3</v>
       </c>
       <c r="E10" s="4">
-        <v>0.84</v>
+        <v>0.9</v>
       </c>
       <c r="F10" s="4">
+        <f t="shared" ref="F10" si="1">1-D10</f>
         <v>0.7</v>
       </c>
-      <c r="G10" s="18">
-        <v>102</v>
-      </c>
-      <c r="H10" s="18">
-        <v>0</v>
-      </c>
-      <c r="I10" s="4">
+      <c r="G10" s="10">
+        <v>34</v>
+      </c>
+      <c r="H10" s="10">
+        <v>0</v>
+      </c>
+      <c r="I10" s="10">
         <v>30</v>
       </c>
-      <c r="J10" s="12"/>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="J10" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="K10" s="21" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A11" s="8" t="s">
-        <v>129</v>
+        <v>113</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>146</v>
+        <v>117</v>
       </c>
       <c r="C11" s="4">
-        <v>0.1</v>
+        <v>0.25</v>
       </c>
       <c r="D11" s="4">
         <v>0.3</v>
       </c>
       <c r="E11" s="4">
-        <v>0.84</v>
+        <v>0.9</v>
       </c>
       <c r="F11" s="4">
         <v>0.7</v>
       </c>
-      <c r="G11" s="18">
+      <c r="G11" s="10">
+        <v>8</v>
+      </c>
+      <c r="H11" s="10">
+        <v>-6</v>
+      </c>
+      <c r="I11" s="10">
         <v>30</v>
       </c>
-      <c r="H11" s="18">
-        <v>-16</v>
-      </c>
-      <c r="I11" s="4">
-        <v>30</v>
-      </c>
-      <c r="J11" s="12"/>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="J11" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="K11" s="21" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A12" s="8" t="s">
-        <v>130</v>
+        <v>114</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>147</v>
+        <v>116</v>
       </c>
       <c r="C12" s="4">
-        <v>0.1</v>
+        <v>0.25</v>
       </c>
       <c r="D12" s="4">
         <v>0.3</v>
       </c>
       <c r="E12" s="4">
-        <v>0.84</v>
+        <v>0.9</v>
       </c>
       <c r="F12" s="4">
         <v>0.7</v>
       </c>
-      <c r="G12" s="18">
-        <v>66</v>
-      </c>
-      <c r="H12" s="18">
-        <v>-90</v>
-      </c>
-      <c r="I12" s="4">
+      <c r="G12" s="10">
+        <v>21</v>
+      </c>
+      <c r="H12" s="10">
+        <v>-33</v>
+      </c>
+      <c r="I12" s="10">
         <v>30</v>
       </c>
-      <c r="J12" s="12"/>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A13" s="26" t="s">
-        <v>153</v>
-      </c>
-      <c r="B13" s="21" t="s">
-        <v>154</v>
-      </c>
-      <c r="C13" s="21">
-        <v>3.2</v>
-      </c>
-      <c r="D13" s="21">
+      <c r="J12" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="K12" s="21" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A13" s="8" t="s">
+        <v>124</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="C13" s="4">
+        <v>0.17</v>
+      </c>
+      <c r="D13" s="4">
+        <v>0.3</v>
+      </c>
+      <c r="E13" s="4">
+        <v>0.9</v>
+      </c>
+      <c r="F13" s="4">
+        <v>0.7</v>
+      </c>
+      <c r="G13" s="10">
+        <v>91</v>
+      </c>
+      <c r="H13" s="10">
+        <v>0</v>
+      </c>
+      <c r="I13" s="10">
+        <v>30</v>
+      </c>
+      <c r="J13" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="K13" s="21" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A14" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="C14" s="4">
+        <v>0.17</v>
+      </c>
+      <c r="D14" s="4">
+        <v>0.3</v>
+      </c>
+      <c r="E14" s="4">
+        <v>0.9</v>
+      </c>
+      <c r="F14" s="4">
+        <v>0.7</v>
+      </c>
+      <c r="G14" s="10">
+        <v>51</v>
+      </c>
+      <c r="H14" s="10">
+        <v>-9</v>
+      </c>
+      <c r="I14" s="10">
+        <v>30</v>
+      </c>
+      <c r="J14" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="K14" s="21" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A15" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="C15" s="4">
+        <v>0.17</v>
+      </c>
+      <c r="D15" s="4">
+        <v>0.3</v>
+      </c>
+      <c r="E15" s="4">
+        <v>0.9</v>
+      </c>
+      <c r="F15" s="4">
+        <v>0.7</v>
+      </c>
+      <c r="G15" s="10">
+        <v>72</v>
+      </c>
+      <c r="H15" s="10">
+        <v>-52</v>
+      </c>
+      <c r="I15" s="10">
+        <v>30</v>
+      </c>
+      <c r="J15" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="K15" s="21" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A16" s="8" t="s">
+        <v>176</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="C16" s="4">
+        <v>0.86</v>
+      </c>
+      <c r="D16" s="4">
         <v>0.6</v>
       </c>
-      <c r="E13" s="21">
+      <c r="E16" s="4">
         <v>0.95</v>
       </c>
-      <c r="F13" s="21">
+      <c r="F16" s="4">
+        <f t="shared" ref="F16:F19" si="2">1-D16</f>
         <v>0.4</v>
       </c>
-      <c r="G13" s="21">
-        <v>0</v>
-      </c>
-      <c r="H13" s="21">
-        <v>0</v>
-      </c>
-      <c r="I13" s="21">
+      <c r="G16" s="10">
+        <v>23</v>
+      </c>
+      <c r="H16" s="10">
+        <v>-1.4</v>
+      </c>
+      <c r="I16" s="10">
+        <v>30</v>
+      </c>
+      <c r="J16" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="K16" s="21" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A17" s="8" t="s">
+        <v>177</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="C17" s="4">
+        <v>0.86</v>
+      </c>
+      <c r="D17" s="4">
+        <v>0.6</v>
+      </c>
+      <c r="E17" s="4">
+        <v>0.95</v>
+      </c>
+      <c r="F17" s="4">
+        <f t="shared" si="2"/>
+        <v>0.4</v>
+      </c>
+      <c r="G17" s="10">
+        <v>14</v>
+      </c>
+      <c r="H17" s="10">
+        <v>-3</v>
+      </c>
+      <c r="I17" s="10">
+        <v>30</v>
+      </c>
+      <c r="J17" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="K17" s="21" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A18" s="8" t="s">
+        <v>178</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="C18" s="4">
+        <v>0.86</v>
+      </c>
+      <c r="D18" s="4">
+        <v>0.6</v>
+      </c>
+      <c r="E18" s="4">
+        <v>0.95</v>
+      </c>
+      <c r="F18" s="4">
+        <f t="shared" si="2"/>
+        <v>0.4</v>
+      </c>
+      <c r="G18" s="10">
+        <v>19</v>
+      </c>
+      <c r="H18" s="10">
+        <v>-13</v>
+      </c>
+      <c r="I18" s="10">
+        <v>30</v>
+      </c>
+      <c r="J18" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="K18" s="21" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A19" s="14" t="s">
+        <v>128</v>
+      </c>
+      <c r="B19" s="13" t="s">
+        <v>129</v>
+      </c>
+      <c r="C19" s="13">
+        <v>0.8</v>
+      </c>
+      <c r="D19" s="13">
+        <v>0.3</v>
+      </c>
+      <c r="E19" s="13">
+        <v>0.84</v>
+      </c>
+      <c r="F19" s="13">
+        <f t="shared" si="2"/>
+        <v>0.7</v>
+      </c>
+      <c r="G19" s="13">
+        <v>0</v>
+      </c>
+      <c r="H19" s="13">
+        <v>0</v>
+      </c>
+      <c r="I19" s="17">
         <v>60</v>
       </c>
-      <c r="J13" s="12"/>
+      <c r="J19" s="18"/>
     </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
@@ -2459,24 +2927,24 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:G14"/>
+  <dimension ref="A1:H17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="48.453125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="61.81640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13.81640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.453125" customWidth="1"/>
     <col min="4" max="4" width="21.453125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="21.453125" customWidth="1"/>
-    <col min="6" max="6" width="17.36328125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="52.6328125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.36328125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.7265625" customWidth="1"/>
+    <col min="7" max="7" width="41" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -2487,19 +2955,19 @@
         <v>19</v>
       </c>
       <c r="D1" s="9" t="s">
-        <v>131</v>
+        <v>141</v>
       </c>
       <c r="E1" s="9" t="s">
-        <v>132</v>
+        <v>142</v>
       </c>
       <c r="F1" s="9" t="s">
         <v>105</v>
       </c>
       <c r="G1" s="9" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A2" s="8" t="s">
         <v>96</v>
       </c>
@@ -2522,7 +2990,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A3" s="8" t="s">
         <v>94</v>
       </c>
@@ -2546,7 +3014,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A4" s="8" t="s">
         <v>97</v>
       </c>
@@ -2569,7 +3037,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A5" s="8" t="s">
         <v>99</v>
       </c>
@@ -2593,7 +3061,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A6" s="8" t="s">
         <v>100</v>
       </c>
@@ -2617,176 +3085,283 @@
         <v>108</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A7" s="14" t="s">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A7" s="8" t="s">
         <v>101</v>
       </c>
-      <c r="B7" s="15" t="s">
+      <c r="B7" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="C7" s="19">
+      <c r="C7" s="6">
         <v>0.25</v>
       </c>
-      <c r="D7" s="19">
+      <c r="D7" s="6">
         <f>D4+135</f>
         <v>315</v>
       </c>
-      <c r="E7" s="19">
-        <v>0</v>
-      </c>
-      <c r="F7" s="15">
+      <c r="E7" s="6">
+        <v>0</v>
+      </c>
+      <c r="F7" s="4">
         <v>60</v>
       </c>
       <c r="G7" s="4" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A8" s="8" t="s">
-        <v>133</v>
+        <v>144</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="C8" s="4">
-        <v>0.1</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="D8" s="4">
-        <v>112</v>
+        <v>21</v>
       </c>
       <c r="E8" s="4">
-        <v>-60</v>
+        <v>0</v>
       </c>
       <c r="F8" s="4">
         <v>60</v>
       </c>
-      <c r="G8" s="12"/>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="G8" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="H8" s="12" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A9" s="8" t="s">
-        <v>134</v>
+        <v>145</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="C9" s="4">
-        <v>0.1</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="D9" s="4">
-        <v>43</v>
+        <v>2</v>
       </c>
       <c r="E9" s="4">
-        <v>-77</v>
+        <v>-4</v>
       </c>
       <c r="F9" s="4">
         <v>60</v>
       </c>
-      <c r="G9" s="12"/>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="G9" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="H9" s="12" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A10" s="8" t="s">
-        <v>135</v>
+        <v>146</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="C10" s="4">
-        <v>0.1</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="D10" s="4">
-        <v>79</v>
+        <v>12</v>
       </c>
       <c r="E10" s="4">
-        <v>-150</v>
+        <v>-25</v>
       </c>
       <c r="F10" s="4">
         <v>60</v>
       </c>
-      <c r="G10" s="12"/>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="G10" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="H10" s="12" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A11" s="8" t="s">
-        <v>136</v>
+        <v>149</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>142</v>
-      </c>
-      <c r="C11" s="4">
-        <v>0.17</v>
+        <v>135</v>
+      </c>
+      <c r="C11" s="6">
+        <v>0.25</v>
       </c>
       <c r="D11" s="4">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="E11" s="4">
         <v>-60</v>
       </c>
       <c r="F11" s="4">
+        <v>60</v>
+      </c>
+      <c r="G11" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="H11" s="12" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A12" s="8" t="s">
+        <v>148</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="C12" s="6">
+        <v>0.25</v>
+      </c>
+      <c r="D12" s="4">
+        <v>68</v>
+      </c>
+      <c r="E12" s="4">
+        <v>-66</v>
+      </c>
+      <c r="F12" s="4">
+        <v>60</v>
+      </c>
+      <c r="G12" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="H12" s="12" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A13" s="8" t="s">
+        <v>147</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="C13" s="6">
+        <v>0.25</v>
+      </c>
+      <c r="D13" s="4">
+        <v>81</v>
+      </c>
+      <c r="E13" s="4">
+        <v>-92</v>
+      </c>
+      <c r="F13" s="4">
+        <v>60</v>
+      </c>
+      <c r="G13" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="H13" s="12" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A14" s="8" t="s">
+        <v>150</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="C14" s="4">
+        <v>0.17</v>
+      </c>
+      <c r="D14" s="4">
+        <v>108</v>
+      </c>
+      <c r="E14" s="4">
+        <v>-60</v>
+      </c>
+      <c r="F14" s="4">
         <v>30</v>
       </c>
-      <c r="G11" s="12"/>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A12" s="8" t="s">
-        <v>137</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>143</v>
-      </c>
-      <c r="C12" s="4">
+      <c r="G14" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="H14" s="12" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A15" s="8" t="s">
+        <v>151</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="C15" s="4">
         <v>0.17</v>
       </c>
-      <c r="D12" s="4">
-        <v>41</v>
-      </c>
-      <c r="E12" s="4">
+      <c r="D15" s="4">
+        <v>70</v>
+      </c>
+      <c r="E15" s="4">
         <v>-69</v>
       </c>
-      <c r="F12" s="4">
+      <c r="F15" s="4">
         <v>30</v>
       </c>
-      <c r="G12" s="12"/>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A13" s="8" t="s">
-        <v>138</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>144</v>
-      </c>
-      <c r="C13" s="4">
+      <c r="G15" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="H15" s="12" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A16" s="8" t="s">
+        <v>152</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="C16" s="4">
         <v>0.17</v>
       </c>
-      <c r="D13" s="4">
-        <v>62</v>
-      </c>
-      <c r="E13" s="4">
+      <c r="D16" s="4">
+        <v>90</v>
+      </c>
+      <c r="E16" s="4">
         <v>-111</v>
       </c>
-      <c r="F13" s="4">
+      <c r="F16" s="4">
         <v>30</v>
       </c>
-      <c r="G13" s="12"/>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A14" s="20" t="s">
-        <v>151</v>
-      </c>
-      <c r="B14" s="21" t="s">
-        <v>152</v>
-      </c>
-      <c r="C14" s="21">
-        <v>0.28000000000000003</v>
-      </c>
-      <c r="D14" s="21">
-        <v>0</v>
-      </c>
-      <c r="E14" s="21">
-        <v>0</v>
-      </c>
-      <c r="F14" s="21">
+      <c r="G16" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="H16" s="12" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A17" s="14" t="s">
+        <v>130</v>
+      </c>
+      <c r="B17" s="13" t="s">
+        <v>131</v>
+      </c>
+      <c r="C17" s="13">
+        <v>2.9</v>
+      </c>
+      <c r="D17" s="13">
+        <v>0</v>
+      </c>
+      <c r="E17" s="13">
+        <v>0</v>
+      </c>
+      <c r="F17" s="13">
         <v>60</v>
       </c>
-      <c r="G14" s="12"/>
     </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>

--- a/cea/databases/SG/assemblies/ENVELOPE.xlsx
+++ b/cea/databases/SG/assemblies/ENVELOPE.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mmeshkin\Documents\CEA_Dataset_pool\For_PullRequest\CH\assemblies\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mmeshkin\Documents\GitHub\CityEnergyAnalyst\cea\databases\SG\assemblies\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{090DF037-D426-4FB3-A8E1-4087EA6B082C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BC7974D-2E27-4EEE-8F8D-CA5D493333E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11620" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="30480" yWindow="3015" windowWidth="20880" windowHeight="14655" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CONSTRUCTION" sheetId="7" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="292" uniqueCount="180">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="160">
   <si>
     <t>Description</t>
   </si>
@@ -369,27 +369,15 @@
     <t>Reference Service life</t>
   </si>
   <si>
-    <t>GWP_fossil_wall_kgCO2m2</t>
-  </si>
-  <si>
-    <t>GWP_biogenic_wall_kgCO2m2</t>
-  </si>
-  <si>
     <t>retrofit external wall, add insulation, conventional, sia 380</t>
   </si>
   <si>
     <t>retrofit external wall, add insulation, low carbon, sia 380</t>
   </si>
   <si>
-    <t>retrofit external wall, add insulation, negative carbon, sia 380</t>
-  </si>
-  <si>
     <t>WALL_AS9_C</t>
   </si>
   <si>
-    <t>WALL_AS9_N</t>
-  </si>
-  <si>
     <t>WALL_AS9_L</t>
   </si>
   <si>
@@ -399,12 +387,6 @@
     <t>WALL_AS10_L</t>
   </si>
   <si>
-    <t>WALL_AS10_N</t>
-  </si>
-  <si>
-    <t>WALL_AS11_N</t>
-  </si>
-  <si>
     <t>WALL_AS11_C</t>
   </si>
   <si>
@@ -417,9 +399,6 @@
     <t>new building, msonary external wall,  low carbon, sia 380</t>
   </si>
   <si>
-    <t>new building, msonary external wall, negative carbon, sia 380</t>
-  </si>
-  <si>
     <t xml:space="preserve">SIA 380/1 / 2016 D - Heizwärmebedarf </t>
   </si>
   <si>
@@ -441,33 +420,18 @@
     <t>FLOOR_AS7_L</t>
   </si>
   <si>
-    <t>FLOOR_AS7_N</t>
-  </si>
-  <si>
     <t>FLOOR_AS10_C</t>
   </si>
   <si>
     <t>FLOOR_AS10_L</t>
   </si>
   <si>
-    <t>FLOOR_AS10_N</t>
-  </si>
-  <si>
     <t>FLOOR_AS11_C</t>
   </si>
   <si>
     <t>FLOOR_AS11_L</t>
   </si>
   <si>
-    <t>FLOOR_AS11_N</t>
-  </si>
-  <si>
-    <t>GWP_fossil_floor_kgCO2m2</t>
-  </si>
-  <si>
-    <t>GWP_biogenic_floor_kgCO2m2</t>
-  </si>
-  <si>
     <t>Reference</t>
   </si>
   <si>
@@ -477,12 +441,6 @@
     <t>retrofit basement, add insulation,  low carbon, sia 380</t>
   </si>
   <si>
-    <t>retrofit basement, add insulation, negative carbon, sia 380</t>
-  </si>
-  <si>
-    <t>new building, basement concrete, with parquet, negative carbon, sia 380</t>
-  </si>
-  <si>
     <t>new building, basement concrete, with parquet, low carbon, sia 380</t>
   </si>
   <si>
@@ -495,15 +453,6 @@
     <t>new building, floor concrete, with parquet, low carbon, sia 380</t>
   </si>
   <si>
-    <t>new building, floor concrete, with parquet, negative carbon, sia 380</t>
-  </si>
-  <si>
-    <t>GWP_fossil_roof_kgCO2m2</t>
-  </si>
-  <si>
-    <t>GWP_biogenic_roof_kgCO2m2</t>
-  </si>
-  <si>
     <t>ROOF_NoRet</t>
   </si>
   <si>
@@ -513,70 +462,61 @@
     <t>ROOF_AS8_L</t>
   </si>
   <si>
-    <t>ROOF_AS8_N</t>
-  </si>
-  <si>
     <t>ROOF_AS9_C</t>
   </si>
   <si>
     <t>ROOF_AS9_L</t>
   </si>
   <si>
-    <t>ROOF_AS9_N</t>
-  </si>
-  <si>
     <t>retrofit flat roof, add insulation, conventional, sia 380</t>
   </si>
   <si>
     <t>retrofit flat roof, add insulation, low carbon, sia 380</t>
   </si>
   <si>
-    <t>retrofit flat roof, add insulation, negative carbon, sia 380</t>
-  </si>
-  <si>
     <t>new building, flat roof, conventional, sia 380</t>
   </si>
   <si>
     <t>new building, flat roof, low carbon, sia 380</t>
   </si>
   <si>
-    <t>new building, flat roof, negative carbon, sia 380</t>
-  </si>
-  <si>
     <t>Reference U-Value</t>
   </si>
   <si>
     <t xml:space="preserve"> </t>
   </si>
   <si>
-    <t>GWP_win_kgCO2m2</t>
-  </si>
-  <si>
-    <t>GWP_fossil_cons_kgCO2m2</t>
-  </si>
-  <si>
-    <t>GWP_biogenic_cons_kgCO2m2</t>
-  </si>
-  <si>
-    <t>Service_Life_cons</t>
-  </si>
-  <si>
-    <t>Reference Material Intensity</t>
-  </si>
-  <si>
-    <t>Tracking Construction Material over Space and Time: Prospective and Geo-referenced Modeling of Building Stocks and Construction Material Flows; KBOB</t>
-  </si>
-  <si>
     <t>new building, internal partition, conventional</t>
   </si>
   <si>
     <t>new building, internal partition, low carbon</t>
   </si>
   <si>
-    <t>new building, internal partition, negative carbon</t>
-  </si>
-  <si>
     <t>WINDOW_NoRet</t>
+  </si>
+  <si>
+    <t>GHG_win_kgCO2m2</t>
+  </si>
+  <si>
+    <t>GHG_roof_kgCO2m2</t>
+  </si>
+  <si>
+    <t>GHG_wall_kgCO2m2</t>
+  </si>
+  <si>
+    <t>GHG_biogenic_wall_kgCO2m2</t>
+  </si>
+  <si>
+    <t>GHG_floor_kgCO2m2</t>
+  </si>
+  <si>
+    <t>GHG_biogenic_win_kgCO2m2</t>
+  </si>
+  <si>
+    <t>GHG_biogenic_roof_kgCO2m2</t>
+  </si>
+  <si>
+    <t>GHG_biogenic_floor_kgCO2m2</t>
   </si>
 </sst>
 </file>
@@ -646,7 +586,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -693,25 +633,12 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -754,17 +681,12 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
@@ -1047,10 +969,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H6"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1058,11 +980,9 @@
     <col min="1" max="1" width="22.453125" customWidth="1"/>
     <col min="2" max="2" width="19.453125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11" customWidth="1"/>
-    <col min="4" max="4" width="24.1796875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="26.90625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1072,23 +992,8 @@
       <c r="C1" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="D1" s="9" t="s">
-        <v>171</v>
-      </c>
-      <c r="E1" s="9" t="s">
-        <v>172</v>
-      </c>
-      <c r="F1" s="9" t="s">
-        <v>173</v>
-      </c>
-      <c r="G1" s="9" t="s">
-        <v>109</v>
-      </c>
-      <c r="H1" s="9" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" s="8" t="s">
         <v>37</v>
       </c>
@@ -1098,23 +1003,8 @@
       <c r="C2" s="4">
         <v>110000</v>
       </c>
-      <c r="D2" s="4">
-        <v>6.9</v>
-      </c>
-      <c r="E2" s="4">
-        <v>-65.5</v>
-      </c>
-      <c r="F2" s="4">
-        <v>60</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="H2" s="15" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" s="8" t="s">
         <v>38</v>
       </c>
@@ -1124,23 +1014,8 @@
       <c r="C3" s="4">
         <v>165000</v>
       </c>
-      <c r="D3" s="4">
-        <v>82.9</v>
-      </c>
-      <c r="E3" s="4">
-        <v>0</v>
-      </c>
-      <c r="F3" s="4">
-        <v>60</v>
-      </c>
-      <c r="G3" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="H3" s="15" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" s="8" t="s">
         <v>36</v>
       </c>
@@ -1150,25 +1025,6 @@
       <c r="C4" s="4">
         <v>300000</v>
       </c>
-      <c r="D4" s="4">
-        <v>0</v>
-      </c>
-      <c r="E4" s="4">
-        <v>0</v>
-      </c>
-      <c r="F4" s="4">
-        <v>60</v>
-      </c>
-      <c r="G4" s="15"/>
-      <c r="H4" s="15"/>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="E5" s="20"/>
-      <c r="F5" s="20"/>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="E6" s="20"/>
-      <c r="F6" s="20"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1273,10 +1129,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:I12"/>
+  <dimension ref="A1:J12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J16" sqref="J16"/>
+      <selection activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1287,11 +1143,12 @@
     <col min="4" max="4" width="8.6328125" customWidth="1"/>
     <col min="5" max="6" width="7.81640625" customWidth="1"/>
     <col min="7" max="7" width="19.36328125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.36328125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="52.6328125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.36328125" customWidth="1"/>
+    <col min="9" max="9" width="15.36328125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="52.6328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1311,16 +1168,19 @@
         <v>52</v>
       </c>
       <c r="G1" s="9" t="s">
-        <v>170</v>
+        <v>152</v>
       </c>
       <c r="H1" s="9" t="s">
+        <v>157</v>
+      </c>
+      <c r="I1" s="9" t="s">
         <v>106</v>
       </c>
-      <c r="I1" s="9" t="s">
+      <c r="J1" s="9" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A2" s="8" t="s">
         <v>5</v>
       </c>
@@ -1342,14 +1202,17 @@
       <c r="G2" s="6">
         <v>47</v>
       </c>
-      <c r="H2" s="4">
+      <c r="H2" s="6">
+        <v>0</v>
+      </c>
+      <c r="I2" s="4">
         <v>30</v>
       </c>
-      <c r="I2" s="4" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J2" s="4" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A3" s="8" t="s">
         <v>31</v>
       </c>
@@ -1371,14 +1234,17 @@
       <c r="G3" s="6">
         <v>62</v>
       </c>
-      <c r="H3" s="4">
+      <c r="H3" s="6">
+        <v>0</v>
+      </c>
+      <c r="I3" s="4">
         <v>30</v>
       </c>
-      <c r="I3" s="4" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J3" s="4" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A4" s="8" t="s">
         <v>30</v>
       </c>
@@ -1400,14 +1266,17 @@
       <c r="G4" s="6">
         <v>69</v>
       </c>
-      <c r="H4" s="4">
+      <c r="H4" s="6">
+        <v>0</v>
+      </c>
+      <c r="I4" s="4">
         <v>30</v>
       </c>
-      <c r="I4" s="4" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J4" s="4" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A5" s="8" t="s">
         <v>6</v>
       </c>
@@ -1429,14 +1298,17 @@
       <c r="G5" s="6">
         <v>123</v>
       </c>
-      <c r="H5" s="4">
+      <c r="H5" s="6">
+        <v>0</v>
+      </c>
+      <c r="I5" s="4">
         <v>30</v>
       </c>
-      <c r="I5" s="4" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J5" s="4" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A6" s="8" t="s">
         <v>46</v>
       </c>
@@ -1458,14 +1330,17 @@
       <c r="G6" s="6">
         <v>123</v>
       </c>
-      <c r="H6" s="4">
+      <c r="H6" s="6">
+        <v>0</v>
+      </c>
+      <c r="I6" s="4">
         <v>30</v>
       </c>
-      <c r="I6" s="4" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J6" s="4" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A7" s="8" t="s">
         <v>7</v>
       </c>
@@ -1487,14 +1362,17 @@
       <c r="G7" s="6">
         <v>123</v>
       </c>
-      <c r="H7" s="4">
+      <c r="H7" s="6">
+        <v>0</v>
+      </c>
+      <c r="I7" s="4">
         <v>30</v>
       </c>
-      <c r="I7" s="4" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J7" s="4" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A8" s="8" t="s">
         <v>8</v>
       </c>
@@ -1516,14 +1394,17 @@
       <c r="G8" s="6">
         <v>70</v>
       </c>
-      <c r="H8" s="4">
+      <c r="H8" s="6">
+        <v>0</v>
+      </c>
+      <c r="I8" s="4">
         <v>30</v>
       </c>
-      <c r="I8" s="4" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J8" s="4" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A9" s="8" t="s">
         <v>49</v>
       </c>
@@ -1545,14 +1426,17 @@
       <c r="G9" s="6">
         <v>47</v>
       </c>
-      <c r="H9" s="4">
+      <c r="H9" s="6">
+        <v>0</v>
+      </c>
+      <c r="I9" s="4">
         <v>30</v>
       </c>
-      <c r="I9" s="4" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J9" s="4" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A10" s="8" t="s">
         <v>50</v>
       </c>
@@ -1574,14 +1458,17 @@
       <c r="G10" s="6">
         <v>62</v>
       </c>
-      <c r="H10" s="4">
+      <c r="H10" s="6">
+        <v>0</v>
+      </c>
+      <c r="I10" s="4">
         <v>30</v>
       </c>
-      <c r="I10" s="4" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J10" s="4" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A11" s="8" t="s">
         <v>51</v>
       </c>
@@ -1603,19 +1490,22 @@
       <c r="G11" s="6">
         <v>62</v>
       </c>
-      <c r="H11" s="4">
+      <c r="H11" s="6">
+        <v>0</v>
+      </c>
+      <c r="I11" s="4">
         <v>30</v>
       </c>
-      <c r="I11" s="4" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J11" s="4" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A12" s="14" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="B12" s="13" t="s">
-        <v>179</v>
+        <v>151</v>
       </c>
       <c r="C12" s="13">
         <v>4.8</v>
@@ -1633,9 +1523,12 @@
         <v>0</v>
       </c>
       <c r="H12" s="13">
+        <v>0</v>
+      </c>
+      <c r="I12" s="13">
         <v>30</v>
       </c>
-      <c r="I12" s="17"/>
+      <c r="J12" s="16"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1645,10 +1538,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:P17"/>
+  <dimension ref="A1:K15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A15" sqref="A15:I15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1665,7 +1558,7 @@
     <col min="11" max="11" width="33.6328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1688,7 +1581,7 @@
         <v>153</v>
       </c>
       <c r="H1" s="9" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="I1" s="9" t="s">
         <v>107</v>
@@ -1697,10 +1590,10 @@
         <v>109</v>
       </c>
       <c r="K1" s="9" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.35">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A2" s="8" t="s">
         <v>21</v>
       </c>
@@ -1733,10 +1626,10 @@
         <v>108</v>
       </c>
       <c r="K2" s="15" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.35">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A3" s="8" t="s">
         <v>20</v>
       </c>
@@ -1769,10 +1662,10 @@
         <v>108</v>
       </c>
       <c r="K3" s="15" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.35">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A4" s="8" t="s">
         <v>23</v>
       </c>
@@ -1805,10 +1698,10 @@
         <v>108</v>
       </c>
       <c r="K4" s="15" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.35">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A5" s="8" t="s">
         <v>22</v>
       </c>
@@ -1841,10 +1734,10 @@
         <v>108</v>
       </c>
       <c r="K5" s="15" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.35">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A6" s="8" t="s">
         <v>24</v>
       </c>
@@ -1877,10 +1770,10 @@
         <v>108</v>
       </c>
       <c r="K6" s="15" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.35">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A7" s="8" t="s">
         <v>25</v>
       </c>
@@ -1913,10 +1806,10 @@
         <v>108</v>
       </c>
       <c r="K7" s="15" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.35">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A8" s="8" t="s">
         <v>47</v>
       </c>
@@ -1949,15 +1842,15 @@
         <v>108</v>
       </c>
       <c r="K8" s="15" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.35">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A9" s="8" t="s">
-        <v>162</v>
+        <v>143</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>156</v>
+        <v>139</v>
       </c>
       <c r="C9" s="4">
         <v>0.25</v>
@@ -1984,16 +1877,16 @@
       <c r="J9" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="K9" s="21" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="K9" s="18" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A10" s="8" t="s">
-        <v>163</v>
+        <v>144</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>157</v>
+        <v>140</v>
       </c>
       <c r="C10" s="4">
         <v>0.25</v>
@@ -2020,19 +1913,19 @@
       <c r="J10" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="K10" s="21" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="K10" s="18" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A11" s="8" t="s">
-        <v>164</v>
+        <v>145</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>158</v>
+        <v>141</v>
       </c>
       <c r="C11" s="4">
-        <v>0.25</v>
+        <v>0.17</v>
       </c>
       <c r="D11" s="4">
         <v>0.85</v>
@@ -2044,10 +1937,10 @@
         <v>0.15</v>
       </c>
       <c r="G11" s="4">
-        <v>23</v>
+        <v>156</v>
       </c>
       <c r="H11" s="4">
-        <v>-34</v>
+        <v>0</v>
       </c>
       <c r="I11" s="4">
         <v>60</v>
@@ -2055,16 +1948,16 @@
       <c r="J11" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="K11" s="21" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="K11" s="18" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A12" s="8" t="s">
-        <v>165</v>
+        <v>146</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>159</v>
+        <v>142</v>
       </c>
       <c r="C12" s="4">
         <v>0.17</v>
@@ -2079,10 +1972,10 @@
         <v>0.15</v>
       </c>
       <c r="G12" s="4">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="H12" s="4">
-        <v>0</v>
+        <v>-10</v>
       </c>
       <c r="I12" s="4">
         <v>60</v>
@@ -2090,134 +1983,49 @@
       <c r="J12" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="K12" s="21" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A13" s="8" t="s">
-        <v>166</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>160</v>
-      </c>
-      <c r="C13" s="4">
-        <v>0.17</v>
-      </c>
-      <c r="D13" s="4">
-        <v>0.85</v>
-      </c>
-      <c r="E13" s="4">
+      <c r="K12" s="18" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A13" s="14" t="s">
+        <v>121</v>
+      </c>
+      <c r="B13" s="13" t="s">
+        <v>138</v>
+      </c>
+      <c r="C13" s="13">
+        <v>0.2</v>
+      </c>
+      <c r="D13" s="13">
+        <v>0.6</v>
+      </c>
+      <c r="E13" s="13">
         <v>0.94</v>
       </c>
-      <c r="F13" s="4">
-        <v>0.15</v>
-      </c>
-      <c r="G13" s="4">
-        <v>68</v>
-      </c>
-      <c r="H13" s="4">
-        <v>-10</v>
-      </c>
-      <c r="I13" s="4">
+      <c r="F13" s="13">
+        <f>1-D13</f>
+        <v>0.4</v>
+      </c>
+      <c r="G13" s="13">
+        <v>0</v>
+      </c>
+      <c r="H13" s="13">
+        <v>0</v>
+      </c>
+      <c r="I13" s="16">
         <v>60</v>
       </c>
-      <c r="J13" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="K13" s="21" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A14" s="8" t="s">
-        <v>167</v>
-      </c>
-      <c r="B14" s="16" t="s">
-        <v>161</v>
-      </c>
-      <c r="C14" s="4">
-        <v>0.17</v>
-      </c>
-      <c r="D14" s="16">
-        <v>0.85</v>
-      </c>
-      <c r="E14" s="16">
-        <v>0.94</v>
-      </c>
-      <c r="F14" s="16">
-        <v>0.15</v>
-      </c>
-      <c r="G14" s="16">
-        <v>90</v>
-      </c>
-      <c r="H14" s="16">
-        <v>-53</v>
-      </c>
-      <c r="I14" s="16">
-        <v>60</v>
-      </c>
-      <c r="J14" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="K14" s="21" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A15" s="14" t="s">
-        <v>128</v>
-      </c>
-      <c r="B15" s="13" t="s">
-        <v>155</v>
-      </c>
-      <c r="C15" s="13">
-        <v>0.2</v>
-      </c>
-      <c r="D15" s="13">
-        <v>0.6</v>
-      </c>
-      <c r="E15" s="13">
-        <v>0.94</v>
-      </c>
-      <c r="F15" s="13">
-        <f>1-D15</f>
-        <v>0.4</v>
-      </c>
-      <c r="G15" s="13">
-        <v>0</v>
-      </c>
-      <c r="H15" s="13">
-        <v>0</v>
-      </c>
-      <c r="I15" s="17">
-        <v>60</v>
-      </c>
-      <c r="J15" s="18"/>
-      <c r="K15" s="19"/>
-      <c r="L15" s="20"/>
-      <c r="M15" s="20"/>
-      <c r="N15" s="20"/>
-      <c r="O15" s="20"/>
-      <c r="P15" s="20"/>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="J16" s="18"/>
-      <c r="K16" s="19"/>
-      <c r="L16" s="20"/>
-      <c r="M16" s="20"/>
-      <c r="N16" s="20"/>
-      <c r="O16" s="20"/>
-      <c r="P16" s="20"/>
-    </row>
-    <row r="17" spans="10:16" x14ac:dyDescent="0.35">
-      <c r="J17" s="18"/>
-      <c r="K17" s="19"/>
-      <c r="L17" s="20"/>
-      <c r="M17" s="20"/>
-      <c r="N17" s="20"/>
-      <c r="O17" s="20"/>
-      <c r="P17" s="20"/>
+      <c r="J13" s="17"/>
+      <c r="K13" s="12"/>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="J14" s="17"/>
+      <c r="K14" s="12"/>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="J15" s="17"/>
+      <c r="K15" s="12"/>
     </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
@@ -2228,10 +2036,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:K19"/>
+  <dimension ref="A1:K16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2265,10 +2073,10 @@
         <v>34</v>
       </c>
       <c r="G1" s="9" t="s">
-        <v>110</v>
+        <v>154</v>
       </c>
       <c r="H1" s="9" t="s">
-        <v>111</v>
+        <v>155</v>
       </c>
       <c r="I1" s="9" t="s">
         <v>104</v>
@@ -2277,7 +2085,7 @@
         <v>109</v>
       </c>
       <c r="K1" s="9" t="s">
-        <v>168</v>
+        <v>147</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.35">
@@ -2313,7 +2121,7 @@
         <v>108</v>
       </c>
       <c r="K2" s="15" t="s">
-        <v>169</v>
+        <v>148</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.35">
@@ -2349,7 +2157,7 @@
         <v>108</v>
       </c>
       <c r="K3" s="15" t="s">
-        <v>169</v>
+        <v>148</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.35">
@@ -2385,7 +2193,7 @@
         <v>108</v>
       </c>
       <c r="K4" s="15" t="s">
-        <v>169</v>
+        <v>148</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.35">
@@ -2421,7 +2229,7 @@
         <v>108</v>
       </c>
       <c r="K5" s="15" t="s">
-        <v>169</v>
+        <v>148</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.35">
@@ -2457,7 +2265,7 @@
         <v>108</v>
       </c>
       <c r="K6" s="15" t="s">
-        <v>169</v>
+        <v>148</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.35">
@@ -2493,7 +2301,7 @@
         <v>108</v>
       </c>
       <c r="K7" s="15" t="s">
-        <v>169</v>
+        <v>148</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.35">
@@ -2529,7 +2337,7 @@
         <v>108</v>
       </c>
       <c r="K8" s="15" t="s">
-        <v>169</v>
+        <v>148</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.35">
@@ -2564,16 +2372,16 @@
       <c r="J9" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="K9" s="21" t="s">
-        <v>127</v>
+      <c r="K9" s="18" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A10" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="B10" s="4" t="s">
         <v>112</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>115</v>
       </c>
       <c r="C10" s="4">
         <v>0.25</v>
@@ -2600,16 +2408,16 @@
       <c r="J10" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="K10" s="21" t="s">
-        <v>127</v>
+      <c r="K10" s="18" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A11" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="B11" s="4" t="s">
         <v>113</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>117</v>
       </c>
       <c r="C11" s="4">
         <v>0.25</v>
@@ -2635,19 +2443,19 @@
       <c r="J11" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="K11" s="21" t="s">
-        <v>127</v>
+      <c r="K11" s="18" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A12" s="8" t="s">
+        <v>118</v>
+      </c>
+      <c r="B12" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="B12" s="4" t="s">
-        <v>116</v>
-      </c>
       <c r="C12" s="4">
-        <v>0.25</v>
+        <v>0.17</v>
       </c>
       <c r="D12" s="4">
         <v>0.3</v>
@@ -2659,10 +2467,10 @@
         <v>0.7</v>
       </c>
       <c r="G12" s="10">
-        <v>21</v>
+        <v>91</v>
       </c>
       <c r="H12" s="10">
-        <v>-33</v>
+        <v>0</v>
       </c>
       <c r="I12" s="10">
         <v>30</v>
@@ -2670,16 +2478,16 @@
       <c r="J12" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="K12" s="21" t="s">
-        <v>127</v>
+      <c r="K12" s="18" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A13" s="8" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="C13" s="4">
         <v>0.17</v>
@@ -2694,10 +2502,10 @@
         <v>0.7</v>
       </c>
       <c r="G13" s="10">
-        <v>91</v>
+        <v>51</v>
       </c>
       <c r="H13" s="10">
-        <v>0</v>
+        <v>-9</v>
       </c>
       <c r="I13" s="10">
         <v>30</v>
@@ -2705,34 +2513,35 @@
       <c r="J13" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="K13" s="21" t="s">
-        <v>127</v>
+      <c r="K13" s="18" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A14" s="8" t="s">
-        <v>125</v>
+        <v>149</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="C14" s="4">
-        <v>0.17</v>
+        <v>0.86</v>
       </c>
       <c r="D14" s="4">
-        <v>0.3</v>
+        <v>0.6</v>
       </c>
       <c r="E14" s="4">
-        <v>0.9</v>
+        <v>0.95</v>
       </c>
       <c r="F14" s="4">
-        <v>0.7</v>
+        <f t="shared" ref="F14:F16" si="2">1-D14</f>
+        <v>0.4</v>
       </c>
       <c r="G14" s="10">
-        <v>51</v>
+        <v>23</v>
       </c>
       <c r="H14" s="10">
-        <v>-9</v>
+        <v>-1.4</v>
       </c>
       <c r="I14" s="10">
         <v>30</v>
@@ -2740,34 +2549,35 @@
       <c r="J14" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="K14" s="21" t="s">
-        <v>127</v>
+      <c r="K14" s="18" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A15" s="8" t="s">
-        <v>126</v>
+        <v>150</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="C15" s="4">
-        <v>0.17</v>
+        <v>0.86</v>
       </c>
       <c r="D15" s="4">
-        <v>0.3</v>
+        <v>0.6</v>
       </c>
       <c r="E15" s="4">
-        <v>0.9</v>
+        <v>0.95</v>
       </c>
       <c r="F15" s="4">
-        <v>0.7</v>
+        <f t="shared" si="2"/>
+        <v>0.4</v>
       </c>
       <c r="G15" s="10">
-        <v>72</v>
+        <v>14</v>
       </c>
       <c r="H15" s="10">
-        <v>-52</v>
+        <v>-3</v>
       </c>
       <c r="I15" s="10">
         <v>30</v>
@@ -2775,148 +2585,40 @@
       <c r="J15" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="K15" s="21" t="s">
-        <v>127</v>
+      <c r="K15" s="18" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A16" s="8" t="s">
-        <v>176</v>
-      </c>
-      <c r="B16" s="4" t="s">
+      <c r="A16" s="14" t="s">
+        <v>121</v>
+      </c>
+      <c r="B16" s="13" t="s">
         <v>122</v>
       </c>
-      <c r="C16" s="4">
-        <v>0.86</v>
-      </c>
-      <c r="D16" s="4">
-        <v>0.6</v>
-      </c>
-      <c r="E16" s="4">
-        <v>0.95</v>
-      </c>
-      <c r="F16" s="4">
-        <f t="shared" ref="F16:F19" si="2">1-D16</f>
-        <v>0.4</v>
-      </c>
-      <c r="G16" s="10">
-        <v>23</v>
-      </c>
-      <c r="H16" s="10">
-        <v>-1.4</v>
-      </c>
-      <c r="I16" s="10">
-        <v>30</v>
-      </c>
-      <c r="J16" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="K16" s="21" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A17" s="8" t="s">
-        <v>177</v>
-      </c>
-      <c r="B17" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="C17" s="4">
-        <v>0.86</v>
-      </c>
-      <c r="D17" s="4">
-        <v>0.6</v>
-      </c>
-      <c r="E17" s="4">
-        <v>0.95</v>
-      </c>
-      <c r="F17" s="4">
-        <f t="shared" si="2"/>
-        <v>0.4</v>
-      </c>
-      <c r="G17" s="10">
-        <v>14</v>
-      </c>
-      <c r="H17" s="10">
-        <v>-3</v>
-      </c>
-      <c r="I17" s="10">
-        <v>30</v>
-      </c>
-      <c r="J17" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="K17" s="21" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A18" s="8" t="s">
-        <v>178</v>
-      </c>
-      <c r="B18" s="4" t="s">
-        <v>121</v>
-      </c>
-      <c r="C18" s="4">
-        <v>0.86</v>
-      </c>
-      <c r="D18" s="4">
-        <v>0.6</v>
-      </c>
-      <c r="E18" s="4">
-        <v>0.95</v>
-      </c>
-      <c r="F18" s="4">
-        <f t="shared" si="2"/>
-        <v>0.4</v>
-      </c>
-      <c r="G18" s="10">
-        <v>19</v>
-      </c>
-      <c r="H18" s="10">
-        <v>-13</v>
-      </c>
-      <c r="I18" s="10">
-        <v>30</v>
-      </c>
-      <c r="J18" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="K18" s="21" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A19" s="14" t="s">
-        <v>128</v>
-      </c>
-      <c r="B19" s="13" t="s">
-        <v>129</v>
-      </c>
-      <c r="C19" s="13">
+      <c r="C16" s="13">
         <v>0.8</v>
       </c>
-      <c r="D19" s="13">
+      <c r="D16" s="13">
         <v>0.3</v>
       </c>
-      <c r="E19" s="13">
+      <c r="E16" s="13">
         <v>0.84</v>
       </c>
-      <c r="F19" s="13">
+      <c r="F16" s="13">
         <f t="shared" si="2"/>
         <v>0.7</v>
       </c>
-      <c r="G19" s="13">
-        <v>0</v>
-      </c>
-      <c r="H19" s="13">
-        <v>0</v>
-      </c>
-      <c r="I19" s="17">
+      <c r="G16" s="13">
+        <v>0</v>
+      </c>
+      <c r="H16" s="13">
+        <v>0</v>
+      </c>
+      <c r="I16" s="16">
         <v>60</v>
       </c>
-      <c r="J19" s="18"/>
+      <c r="J16" s="17"/>
     </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
@@ -2927,10 +2629,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:H17"/>
+  <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2939,7 +2641,7 @@
     <col min="2" max="2" width="13.81640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.453125" customWidth="1"/>
     <col min="4" max="4" width="21.453125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.36328125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="24.08984375" customWidth="1"/>
     <col min="6" max="6" width="20.7265625" customWidth="1"/>
     <col min="7" max="7" width="41" customWidth="1"/>
   </cols>
@@ -2955,16 +2657,16 @@
         <v>19</v>
       </c>
       <c r="D1" s="9" t="s">
-        <v>141</v>
+        <v>156</v>
       </c>
       <c r="E1" s="9" t="s">
-        <v>142</v>
+        <v>159</v>
       </c>
       <c r="F1" s="9" t="s">
         <v>105</v>
       </c>
       <c r="G1" s="9" t="s">
-        <v>143</v>
+        <v>131</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.35">
@@ -3111,10 +2813,10 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A8" s="8" t="s">
-        <v>144</v>
+        <v>132</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="C8" s="4">
         <v>0.28000000000000003</v>
@@ -3132,15 +2834,15 @@
         <v>108</v>
       </c>
       <c r="H8" s="12" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A9" s="8" t="s">
-        <v>145</v>
+        <v>133</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="C9" s="4">
         <v>0.28000000000000003</v>
@@ -3158,24 +2860,24 @@
         <v>108</v>
       </c>
       <c r="H9" s="12" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A10" s="8" t="s">
-        <v>146</v>
+        <v>135</v>
       </c>
       <c r="B10" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="C10" s="6">
+        <v>0.25</v>
+      </c>
+      <c r="D10" s="4">
         <v>134</v>
       </c>
-      <c r="C10" s="4">
-        <v>0.28000000000000003</v>
-      </c>
-      <c r="D10" s="4">
-        <v>12</v>
-      </c>
       <c r="E10" s="4">
-        <v>-25</v>
+        <v>-60</v>
       </c>
       <c r="F10" s="4">
         <v>60</v>
@@ -3184,24 +2886,24 @@
         <v>108</v>
       </c>
       <c r="H10" s="12" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A11" s="8" t="s">
-        <v>149</v>
+        <v>134</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="C11" s="6">
         <v>0.25</v>
       </c>
       <c r="D11" s="4">
-        <v>93</v>
+        <v>110</v>
       </c>
       <c r="E11" s="4">
-        <v>-60</v>
+        <v>-66</v>
       </c>
       <c r="F11" s="4">
         <v>60</v>
@@ -3210,156 +2912,78 @@
         <v>108</v>
       </c>
       <c r="H11" s="12" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A12" s="8" t="s">
-        <v>148</v>
+        <v>136</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>136</v>
-      </c>
-      <c r="C12" s="6">
-        <v>0.25</v>
+        <v>129</v>
+      </c>
+      <c r="C12" s="4">
+        <v>0.17</v>
       </c>
       <c r="D12" s="4">
-        <v>68</v>
+        <v>172</v>
       </c>
       <c r="E12" s="4">
-        <v>-66</v>
+        <v>-60</v>
       </c>
       <c r="F12" s="4">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="G12" s="4" t="s">
         <v>108</v>
       </c>
       <c r="H12" s="12" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A13" s="8" t="s">
-        <v>147</v>
+        <v>137</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>137</v>
-      </c>
-      <c r="C13" s="6">
-        <v>0.25</v>
+        <v>130</v>
+      </c>
+      <c r="C13" s="4">
+        <v>0.17</v>
       </c>
       <c r="D13" s="4">
-        <v>81</v>
+        <v>133</v>
       </c>
       <c r="E13" s="4">
-        <v>-92</v>
+        <v>-70</v>
       </c>
       <c r="F13" s="4">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="G13" s="4" t="s">
         <v>108</v>
       </c>
       <c r="H13" s="12" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A14" s="8" t="s">
-        <v>150</v>
-      </c>
-      <c r="B14" s="4" t="s">
-        <v>138</v>
-      </c>
-      <c r="C14" s="4">
-        <v>0.17</v>
-      </c>
-      <c r="D14" s="4">
-        <v>108</v>
-      </c>
-      <c r="E14" s="4">
-        <v>-60</v>
-      </c>
-      <c r="F14" s="4">
-        <v>30</v>
-      </c>
-      <c r="G14" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="H14" s="12" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A15" s="8" t="s">
-        <v>151</v>
-      </c>
-      <c r="B15" s="4" t="s">
-        <v>139</v>
-      </c>
-      <c r="C15" s="4">
-        <v>0.17</v>
-      </c>
-      <c r="D15" s="4">
-        <v>70</v>
-      </c>
-      <c r="E15" s="4">
-        <v>-69</v>
-      </c>
-      <c r="F15" s="4">
-        <v>30</v>
-      </c>
-      <c r="G15" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="H15" s="12" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A16" s="8" t="s">
-        <v>152</v>
-      </c>
-      <c r="B16" s="4" t="s">
-        <v>140</v>
-      </c>
-      <c r="C16" s="4">
-        <v>0.17</v>
-      </c>
-      <c r="D16" s="4">
-        <v>90</v>
-      </c>
-      <c r="E16" s="4">
-        <v>-111</v>
-      </c>
-      <c r="F16" s="4">
-        <v>30</v>
-      </c>
-      <c r="G16" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="H16" s="12" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A17" s="14" t="s">
-        <v>130</v>
-      </c>
-      <c r="B17" s="13" t="s">
-        <v>131</v>
-      </c>
-      <c r="C17" s="13">
+      <c r="A14" s="14" t="s">
+        <v>123</v>
+      </c>
+      <c r="B14" s="13" t="s">
+        <v>124</v>
+      </c>
+      <c r="C14" s="13">
         <v>2.9</v>
       </c>
-      <c r="D17" s="13">
-        <v>0</v>
-      </c>
-      <c r="E17" s="13">
-        <v>0</v>
-      </c>
-      <c r="F17" s="13">
+      <c r="D14" s="13">
+        <v>0</v>
+      </c>
+      <c r="E14" s="13">
+        <v>0</v>
+      </c>
+      <c r="F14" s="13">
         <v>60</v>
       </c>
     </row>
